--- a/instructions/WBM_Usage_and_Input_Reference.xlsx
+++ b/instructions/WBM_Usage_and_Input_Reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59BCB77-9F85-48FA-90D2-01F3249DA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A124DBB-0FB4-48FE-B8F1-F5F8402E28F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3060" windowWidth="22065" windowHeight="15435" xr2:uid="{7ADAB19C-34E8-47C7-8816-9A3014E3E342}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="17265" windowHeight="15435" xr2:uid="{7ADAB19C-34E8-47C7-8816-9A3014E3E342}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="668">
   <si>
     <t>Field</t>
   </si>
@@ -4038,6 +4038,55 @@
   </si>
   <si>
     <t>WBM v.23.7.0 or newer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muskingum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> routing parameter. Can be a scalar number or grid</t>
+    </r>
+  </si>
+  <si>
+    <t>SinuosityFlag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muskingum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sinuosity factor by Lazarus and Constantine (2013)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5469,153 +5518,153 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -5706,17 +5755,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6063,11 +6112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFF1263-6437-4BCC-B80E-9D3606D78015}">
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6099,7 +6148,7 @@
       <c r="G1" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="160" t="s">
+      <c r="H1" s="158" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6117,7 +6166,7 @@
       </c>
       <c r="F2" s="120"/>
       <c r="G2" s="120"/>
-      <c r="H2" s="161"/>
+      <c r="H2" s="159"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -6126,11 +6175,11 @@
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="C3" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26" t="s">
         <v>3</v>
@@ -6146,11 +6195,11 @@
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="C4" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="156"/>
+      <c r="E4" s="157"/>
       <c r="F4" s="13"/>
       <c r="G4" s="14" t="s">
         <v>6</v>
@@ -6166,11 +6215,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
         <v>6</v>
@@ -6180,7 +6229,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="143" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="183" t="s">
@@ -6195,28 +6244,28 @@
       <c r="E6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="149" t="s">
+      <c r="F6" s="151"/>
+      <c r="G6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="141" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="146"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="184"/>
       <c r="C7" s="124" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="144"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="146"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="184"/>
       <c r="C8" s="9" t="s">
         <v>93</v>
@@ -6227,12 +6276,12 @@
       <c r="E8" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="144"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="142"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="146"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="184"/>
       <c r="C9" s="7" t="s">
         <v>99</v>
@@ -6243,12 +6292,12 @@
       <c r="E9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="154"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="144"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="184"/>
       <c r="C10" s="7" t="s">
         <v>94</v>
@@ -6259,12 +6308,12 @@
       <c r="E10" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F10" s="154"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="144"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="146"/>
+      <c r="A11" s="144"/>
       <c r="B11" s="184"/>
       <c r="C11" s="7" t="s">
         <v>96</v>
@@ -6275,12 +6324,12 @@
       <c r="E11" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="F11" s="154"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="144"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="142"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="146"/>
+      <c r="A12" s="144"/>
       <c r="B12" s="184"/>
       <c r="C12" s="7" t="s">
         <v>100</v>
@@ -6291,12 +6340,12 @@
       <c r="E12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="144"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="142"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="146"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="184"/>
       <c r="C13" s="7" t="s">
         <v>103</v>
@@ -6307,12 +6356,12 @@
       <c r="E13" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="144"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="142"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="146"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="184"/>
       <c r="C14" s="106" t="s">
         <v>104</v>
@@ -6323,12 +6372,12 @@
       <c r="E14" s="107" t="s">
         <v>608</v>
       </c>
-      <c r="F14" s="154"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="144"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="142"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="146"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="184"/>
       <c r="C15" s="106" t="s">
         <v>609</v>
@@ -6339,12 +6388,12 @@
       <c r="E15" s="107" t="s">
         <v>626</v>
       </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="144"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="146"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="184"/>
       <c r="C16" s="106" t="s">
         <v>610</v>
@@ -6355,12 +6404,12 @@
       <c r="E16" s="107" t="s">
         <v>611</v>
       </c>
-      <c r="F16" s="154"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="144"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="146"/>
+      <c r="A17" s="144"/>
       <c r="B17" s="184"/>
       <c r="C17" s="106" t="s">
         <v>612</v>
@@ -6371,9 +6420,9 @@
       <c r="E17" s="107" t="s">
         <v>613</v>
       </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="144"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="182"/>
@@ -6387,9 +6436,9 @@
       <c r="E18" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="F18" s="155"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="162"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="160"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="189" t="s">
@@ -6407,11 +6456,11 @@
       <c r="E19" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="F19" s="153"/>
-      <c r="G19" s="149" t="s">
+      <c r="F19" s="151"/>
+      <c r="G19" s="147" t="s">
         <v>589</v>
       </c>
-      <c r="H19" s="163"/>
+      <c r="H19" s="161"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="190"/>
@@ -6425,9 +6474,9 @@
       <c r="E20" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="164"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="162"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="190"/>
@@ -6441,11 +6490,11 @@
       <c r="E21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="154"/>
-      <c r="G21" s="150" t="s">
+      <c r="F21" s="152"/>
+      <c r="G21" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="164"/>
+      <c r="H21" s="162"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="190"/>
@@ -6459,9 +6508,9 @@
       <c r="E22" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="164"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="162"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="190"/>
@@ -6475,9 +6524,9 @@
       <c r="E23" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="F23" s="154"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="164"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="162"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="191"/>
@@ -6491,9 +6540,9 @@
       <c r="E24" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="165"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="163"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="18" t="s">
@@ -6516,10 +6565,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="173" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="36" t="s">
@@ -6531,10 +6580,10 @@
       <c r="E26" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="131" t="s">
+      <c r="G26" s="164" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="121" t="s">
@@ -6543,7 +6592,7 @@
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="126"/>
-      <c r="B27" s="175"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="124" t="s">
         <v>92</v>
       </c>
@@ -6555,7 +6604,7 @@
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="126"/>
-      <c r="B28" s="175"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="9" t="s">
         <v>112</v>
       </c>
@@ -6571,7 +6620,7 @@
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="127"/>
-      <c r="B29" s="176"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="38" t="s">
         <v>113</v>
       </c>
@@ -6592,11 +6641,11 @@
       <c r="B30" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
+      <c r="C30" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="156"/>
+      <c r="E30" s="157"/>
       <c r="F30" s="25" t="s">
         <v>30</v>
       </c>
@@ -6608,10 +6657,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="169" t="s">
+      <c r="A31" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="173" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -6623,10 +6672,10 @@
       <c r="E31" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="128" t="s">
+      <c r="F31" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="131" t="s">
+      <c r="G31" s="164" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="121" t="s">
@@ -6635,7 +6684,7 @@
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="126"/>
-      <c r="B32" s="175"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="124" t="s">
         <v>92</v>
       </c>
@@ -6647,7 +6696,7 @@
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="126"/>
-      <c r="B33" s="175"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="9" t="s">
         <v>112</v>
       </c>
@@ -6671,7 +6720,7 @@
       <c r="E34" s="124"/>
       <c r="F34" s="177"/>
       <c r="G34" s="178"/>
-      <c r="H34" s="173"/>
+      <c r="H34" s="172"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="179"/>
@@ -6687,11 +6736,11 @@
       </c>
       <c r="F35" s="177"/>
       <c r="G35" s="178"/>
-      <c r="H35" s="173"/>
+      <c r="H35" s="172"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="127"/>
-      <c r="B36" s="176"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="38" t="s">
         <v>119</v>
       </c>
@@ -6712,11 +6761,11 @@
       <c r="B37" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="158"/>
-      <c r="E37" s="159"/>
+      <c r="C37" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="156"/>
+      <c r="E37" s="157"/>
       <c r="F37" s="41"/>
       <c r="G37" s="14" t="s">
         <v>3</v>
@@ -6730,11 +6779,11 @@
       <c r="B38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="158"/>
-      <c r="E38" s="159"/>
+      <c r="C38" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="156"/>
+      <c r="E38" s="157"/>
       <c r="F38" s="41"/>
       <c r="G38" s="14" t="s">
         <v>3</v>
@@ -6744,10 +6793,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="137" t="s">
         <v>124</v>
       </c>
       <c r="C39" s="36" t="s">
@@ -6760,14 +6809,14 @@
         <v>127</v>
       </c>
       <c r="F39" s="50"/>
-      <c r="G39" s="141" t="s">
+      <c r="G39" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="143"/>
+      <c r="H39" s="141"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="138"/>
-      <c r="B40" s="140"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="9" t="s">
         <v>128</v>
       </c>
@@ -6778,12 +6827,12 @@
         <v>130</v>
       </c>
       <c r="F40" s="51"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="144"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="142"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="138"/>
-      <c r="B41" s="140"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="9" t="s">
         <v>131</v>
       </c>
@@ -6794,12 +6843,12 @@
         <v>133</v>
       </c>
       <c r="F41" s="51"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="144"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="142"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="138"/>
-      <c r="B42" s="140"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="138"/>
       <c r="C42" s="9" t="s">
         <v>134</v>
       </c>
@@ -6812,12 +6861,12 @@
       <c r="F42" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="G42" s="142"/>
-      <c r="H42" s="144"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="142"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="138"/>
-      <c r="B43" s="140"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="9" t="s">
         <v>135</v>
       </c>
@@ -6828,12 +6877,12 @@
         <v>138</v>
       </c>
       <c r="F43" s="51"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="144"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="142"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="138"/>
-      <c r="B44" s="140"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="9" t="s">
         <v>136</v>
       </c>
@@ -6841,723 +6890,721 @@
         <v>137</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>138</v>
+        <v>665</v>
       </c>
       <c r="F44" s="51"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="144"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="142"/>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="138"/>
-      <c r="B45" s="140"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="D45" s="48">
+        <v>0</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="F45" s="51"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="142"/>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="136"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D46" s="48">
         <v>0.25</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="144"/>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="138"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="48">
-        <v>0.4</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>139</v>
       </c>
       <c r="F46" s="51"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="144"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="142"/>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="138"/>
-      <c r="B47" s="140"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="54">
-        <v>8</v>
+        <v>141</v>
+      </c>
+      <c r="D47" s="48">
+        <v>0.4</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>139</v>
       </c>
       <c r="F47" s="51"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="144"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="142"/>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="138"/>
-      <c r="B48" s="140"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="48">
-        <v>0.57999999999999996</v>
+        <v>142</v>
+      </c>
+      <c r="D48" s="54">
+        <v>8</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>139</v>
       </c>
       <c r="F48" s="51"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="144"/>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A49" s="138"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="37" t="s">
+      <c r="G48" s="140"/>
+      <c r="H48" s="142"/>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="136"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="142"/>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A50" s="136"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D50" s="52">
         <v>0.1</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E50" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="144"/>
-    </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="145" t="s">
+      <c r="F50" s="51"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="142"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="147" t="s">
+      <c r="B51" s="145" t="s">
         <v>581</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C51" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="55">
+      <c r="D51" s="55">
         <v>5</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E51" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F51" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="G50" s="149" t="s">
+      <c r="G51" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="151" t="s">
+      <c r="H51" s="149" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="146"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="9" t="s">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="144"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D52" s="54">
         <v>6</v>
       </c>
-      <c r="E51" s="105" t="s">
+      <c r="E52" s="105" t="s">
         <v>607</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F52" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="G51" s="150"/>
-      <c r="H51" s="152"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="146"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="9" t="s">
+      <c r="G52" s="148"/>
+      <c r="H52" s="150"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="144"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D53" s="48">
         <v>0.2</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E53" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F53" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="150"/>
-      <c r="H52" s="152"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="146"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="9" t="s">
+      <c r="G53" s="148"/>
+      <c r="H53" s="150"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="144"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D54" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E54" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F54" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G53" s="150"/>
-      <c r="H53" s="152"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="146"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="9" t="s">
+      <c r="G54" s="148"/>
+      <c r="H54" s="150"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="144"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D55" s="48">
         <v>0.5</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E55" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F55" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="G54" s="150"/>
-      <c r="H54" s="152"/>
-    </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="146"/>
-      <c r="B55" s="148"/>
-      <c r="C55" s="9" t="s">
+      <c r="G55" s="148"/>
+      <c r="H55" s="150"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="144"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D56" s="48">
         <v>1.67E-2</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E56" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F56" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="G55" s="150"/>
-      <c r="H55" s="152"/>
-    </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="146"/>
-      <c r="B56" s="148"/>
-      <c r="C56" s="9" t="s">
+      <c r="G56" s="148"/>
+      <c r="H56" s="150"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="144"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="54">
-        <v>60</v>
-      </c>
-      <c r="E56" s="32" t="s">
+      <c r="D57" s="54">
+        <v>3</v>
+      </c>
+      <c r="E57" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F57" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="G56" s="150"/>
-      <c r="H56" s="152"/>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="146"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="9" t="s">
+      <c r="G57" s="148"/>
+      <c r="H57" s="150"/>
+    </row>
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="144"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D58" s="48">
         <v>0.2</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E58" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F58" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="G57" s="150"/>
-      <c r="H57" s="152"/>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="146"/>
-      <c r="B58" s="148"/>
-      <c r="C58" s="9" t="s">
+      <c r="G58" s="148"/>
+      <c r="H58" s="150"/>
+    </row>
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="144"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D59" s="48">
         <v>1000</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E59" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F59" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="150"/>
-      <c r="H58" s="152"/>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="146"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="9" t="s">
+      <c r="G59" s="148"/>
+      <c r="H59" s="150"/>
+    </row>
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="144"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="D59" s="54">
-        <v>1</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="G59" s="150"/>
-      <c r="H59" s="152"/>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="146"/>
-      <c r="B60" s="148"/>
-      <c r="C60" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="D60" s="54">
         <v>1</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F60" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="G60" s="150"/>
-      <c r="H60" s="152"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="150"/>
     </row>
     <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="146"/>
-      <c r="B61" s="148"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="146"/>
       <c r="C61" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="54">
+        <v>1</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="G61" s="148"/>
+      <c r="H61" s="150"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="144"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D61" s="48" t="s">
+      <c r="D62" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E62" s="32" t="s">
         <v>167</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="G61" s="150"/>
-      <c r="H61" s="152"/>
-    </row>
-    <row r="62" spans="1:8" ht="30" customHeight="1">
-      <c r="A62" s="146"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="D62" s="48">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="F62" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G62" s="150"/>
-      <c r="H62" s="152"/>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="146"/>
-      <c r="B63" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="150"/>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1">
+      <c r="A63" s="144"/>
+      <c r="B63" s="146"/>
       <c r="C63" s="9" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="D63" s="48">
-        <v>1</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>576</v>
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>621</v>
       </c>
       <c r="F63" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G63" s="150"/>
-      <c r="H63" s="152"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="150"/>
     </row>
     <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="146"/>
-      <c r="B64" s="148"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="146"/>
       <c r="C64" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D64" s="48">
+        <v>1</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="G64" s="148"/>
+      <c r="H64" s="150"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="144"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="104">
+      <c r="D65" s="104">
         <v>0</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E65" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F65" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="G64" s="150"/>
-      <c r="H64" s="152"/>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="146"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="9" t="s">
+      <c r="G65" s="148"/>
+      <c r="H65" s="150"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="144"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="32" t="s">
+      <c r="D66" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="F65" s="44" t="s">
+      <c r="F66" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G65" s="150"/>
-      <c r="H65" s="152"/>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="146"/>
-      <c r="B66" s="148"/>
-      <c r="C66" s="9" t="s">
+      <c r="G66" s="148"/>
+      <c r="H66" s="150"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="144"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" s="32" t="s">
+      <c r="D67" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F66" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="150"/>
-      <c r="H66" s="152"/>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="146"/>
-      <c r="B67" s="148"/>
-      <c r="C67" s="9" t="s">
+      <c r="F67" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" s="148"/>
+      <c r="H67" s="150"/>
+    </row>
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="144"/>
+      <c r="B68" s="146"/>
+      <c r="C68" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="D67" s="48">
-        <v>0</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="G67" s="150"/>
-      <c r="H67" s="152"/>
-    </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="146"/>
-      <c r="B68" s="148"/>
-      <c r="C68" s="57" t="s">
-        <v>173</v>
       </c>
       <c r="D68" s="48">
         <v>0</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F68" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G68" s="150"/>
-      <c r="H68" s="152"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="150"/>
     </row>
     <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="146"/>
-      <c r="B69" s="148"/>
-      <c r="C69" s="9" t="s">
+      <c r="A69" s="144"/>
+      <c r="B69" s="146"/>
+      <c r="C69" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="48">
+        <v>0</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" s="148"/>
+      <c r="H69" s="150"/>
+    </row>
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="144"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D70" s="48">
         <v>1</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E70" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F70" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="G69" s="150"/>
-      <c r="H69" s="152"/>
-    </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="146"/>
-      <c r="B70" s="148"/>
-      <c r="C70" s="9" t="s">
+      <c r="G70" s="148"/>
+      <c r="H70" s="150"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="144"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="D70" s="48">
-        <v>0</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F70" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="G70" s="150"/>
-      <c r="H70" s="152"/>
-    </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="146"/>
-      <c r="B71" s="148"/>
-      <c r="C71" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="D71" s="48">
         <v>0</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F71" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G71" s="150"/>
-      <c r="H71" s="152"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="150"/>
     </row>
     <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="146"/>
-      <c r="B72" s="148"/>
-      <c r="C72" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="52">
-        <v>1</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>182</v>
+      <c r="A72" s="144"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="48">
+        <v>0</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="F72" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G72" s="150"/>
-      <c r="H72" s="152"/>
-    </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A73" s="146"/>
-      <c r="B73" s="148"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="150"/>
+    </row>
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="144"/>
+      <c r="B73" s="146"/>
       <c r="C73" s="37" t="s">
-        <v>627</v>
+        <v>181</v>
       </c>
       <c r="D73" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>628</v>
+        <v>182</v>
       </c>
       <c r="F73" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="G73" s="150"/>
-      <c r="H73" s="152"/>
-    </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="169" t="s">
+      <c r="G73" s="148"/>
+      <c r="H73" s="150"/>
+    </row>
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A74" s="144"/>
+      <c r="B74" s="146"/>
+      <c r="C74" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="D74" s="52">
+        <v>0</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="G74" s="148"/>
+      <c r="H74" s="150"/>
+    </row>
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="170" t="s">
+      <c r="B75" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C75" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="31" t="s">
+      <c r="D75" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F74" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="131" t="s">
+      <c r="F75" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="166"/>
-    </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="126"/>
-      <c r="B75" s="171"/>
-      <c r="C75" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D75" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="G75" s="132"/>
-      <c r="H75" s="167"/>
+      <c r="H75" s="165"/>
     </row>
     <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="126"/>
-      <c r="B76" s="171"/>
+      <c r="B76" s="170"/>
       <c r="C76" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="59" t="s">
         <v>88</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" s="44" t="s">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="G76" s="132"/>
-      <c r="H76" s="167"/>
+      <c r="H76" s="166"/>
     </row>
     <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="126"/>
-      <c r="B77" s="171"/>
+      <c r="B77" s="170"/>
       <c r="C77" s="9" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77" s="44" t="s">
         <v>88</v>
       </c>
       <c r="G77" s="132"/>
-      <c r="H77" s="167"/>
+      <c r="H77" s="166"/>
     </row>
     <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="126"/>
-      <c r="B78" s="171"/>
+      <c r="B78" s="170"/>
       <c r="C78" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>419</v>
+        <v>189</v>
       </c>
       <c r="F78" s="44" t="s">
-        <v>416</v>
+        <v>88</v>
       </c>
       <c r="G78" s="132"/>
-      <c r="H78" s="167"/>
+      <c r="H78" s="166"/>
     </row>
     <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="126"/>
-      <c r="B79" s="171"/>
+      <c r="B79" s="170"/>
       <c r="C79" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F79" s="44" t="s">
         <v>416</v>
       </c>
       <c r="G79" s="132"/>
-      <c r="H79" s="167"/>
+      <c r="H79" s="166"/>
     </row>
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="126"/>
-      <c r="B80" s="171"/>
+      <c r="B80" s="170"/>
       <c r="C80" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F80" s="44" t="s">
         <v>416</v>
       </c>
       <c r="G80" s="132"/>
-      <c r="H80" s="167"/>
+      <c r="H80" s="166"/>
     </row>
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="126"/>
-      <c r="B81" s="171"/>
+      <c r="B81" s="170"/>
       <c r="C81" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F81" s="44" t="s">
         <v>416</v>
       </c>
       <c r="G81" s="132"/>
-      <c r="H81" s="167"/>
+      <c r="H81" s="166"/>
     </row>
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="126"/>
-      <c r="B82" s="171"/>
+      <c r="B82" s="170"/>
       <c r="C82" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F82" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G82" s="132"/>
-      <c r="H82" s="167"/>
+      <c r="H82" s="166"/>
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="126"/>
-      <c r="B83" s="171"/>
+      <c r="B83" s="170"/>
       <c r="C83" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="F83" s="44" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
       <c r="G83" s="132"/>
-      <c r="H83" s="167"/>
+      <c r="H83" s="166"/>
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="126"/>
-      <c r="B84" s="171"/>
+      <c r="B84" s="170"/>
       <c r="C84" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" s="59" t="s">
         <v>88</v>
@@ -7569,13 +7616,13 @@
         <v>88</v>
       </c>
       <c r="G84" s="132"/>
-      <c r="H84" s="167"/>
+      <c r="H84" s="166"/>
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="126"/>
-      <c r="B85" s="171"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D85" s="59" t="s">
         <v>88</v>
@@ -7587,199 +7634,199 @@
         <v>88</v>
       </c>
       <c r="G85" s="132"/>
-      <c r="H85" s="167"/>
+      <c r="H85" s="166"/>
     </row>
     <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="126"/>
-      <c r="B86" s="171"/>
+      <c r="B86" s="170"/>
       <c r="C86" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="59" t="s">
         <v>88</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F86" s="44" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G86" s="132"/>
-      <c r="H86" s="167"/>
+      <c r="H86" s="166"/>
     </row>
     <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="126"/>
-      <c r="B87" s="171"/>
+      <c r="B87" s="170"/>
       <c r="C87" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F87" s="44" t="s">
         <v>102</v>
       </c>
       <c r="G87" s="132"/>
-      <c r="H87" s="167"/>
+      <c r="H87" s="166"/>
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="126"/>
-      <c r="B88" s="171"/>
-      <c r="C88" s="56" t="s">
+      <c r="B88" s="170"/>
+      <c r="C88" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" s="132"/>
+      <c r="H88" s="166"/>
+    </row>
+    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="126"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E88" s="32" t="s">
+      <c r="D89" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" s="132"/>
-      <c r="H88" s="167"/>
-    </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A89" s="127"/>
-      <c r="B89" s="172"/>
-      <c r="C89" s="38" t="s">
+      <c r="F89" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="132"/>
+      <c r="H89" s="166"/>
+    </row>
+    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A90" s="127"/>
+      <c r="B90" s="171"/>
+      <c r="C90" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E89" s="33" t="s">
+      <c r="D90" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F90" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G89" s="133"/>
-      <c r="H89" s="168"/>
-    </row>
-    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="169" t="s">
+      <c r="G90" s="133"/>
+      <c r="H90" s="167"/>
+    </row>
+    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="170" t="s">
+      <c r="B91" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C91" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" s="31" t="s">
+      <c r="D91" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="F90" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90" s="131" t="s">
+      <c r="F91" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="166"/>
-    </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="126"/>
-      <c r="B91" s="171"/>
-      <c r="C91" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F91" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="G91" s="132"/>
-      <c r="H91" s="167"/>
+      <c r="H91" s="165"/>
     </row>
     <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="126"/>
-      <c r="B92" s="171"/>
+      <c r="B92" s="170"/>
       <c r="C92" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="59" t="s">
         <v>88</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F92" s="44" t="s">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="G92" s="132"/>
-      <c r="H92" s="167"/>
+      <c r="H92" s="166"/>
     </row>
     <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="126"/>
-      <c r="B93" s="171"/>
+      <c r="B93" s="170"/>
       <c r="C93" s="9" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>423</v>
+        <v>207</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>416</v>
+        <v>88</v>
       </c>
       <c r="G93" s="132"/>
-      <c r="H93" s="167"/>
+      <c r="H93" s="166"/>
     </row>
     <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="126"/>
-      <c r="B94" s="171"/>
+      <c r="B94" s="170"/>
       <c r="C94" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F94" s="44" t="s">
         <v>416</v>
       </c>
       <c r="G94" s="132"/>
-      <c r="H94" s="167"/>
+      <c r="H94" s="166"/>
     </row>
     <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="126"/>
-      <c r="B95" s="171"/>
+      <c r="B95" s="170"/>
       <c r="C95" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>223</v>
+        <v>424</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="G95" s="132"/>
-      <c r="H95" s="167"/>
+      <c r="H95" s="166"/>
     </row>
     <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="126"/>
-      <c r="B96" s="171"/>
+      <c r="B96" s="170"/>
       <c r="C96" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>88</v>
@@ -7791,297 +7838,293 @@
         <v>88</v>
       </c>
       <c r="G96" s="132"/>
-      <c r="H96" s="167"/>
+      <c r="H96" s="166"/>
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="126"/>
-      <c r="B97" s="171"/>
+      <c r="B97" s="170"/>
       <c r="C97" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>425</v>
+        <v>223</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>426</v>
+        <v>88</v>
       </c>
       <c r="G97" s="132"/>
-      <c r="H97" s="167"/>
+      <c r="H97" s="166"/>
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="126"/>
-      <c r="B98" s="171"/>
+      <c r="B98" s="170"/>
       <c r="C98" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F98" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G98" s="132"/>
-      <c r="H98" s="167"/>
+      <c r="H98" s="166"/>
     </row>
     <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="126"/>
-      <c r="B99" s="171"/>
+      <c r="B99" s="170"/>
       <c r="C99" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G99" s="132"/>
-      <c r="H99" s="167"/>
+      <c r="H99" s="166"/>
     </row>
     <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="126"/>
-      <c r="B100" s="171"/>
+      <c r="B100" s="170"/>
       <c r="C100" s="9" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>102</v>
+        <v>429</v>
       </c>
       <c r="G100" s="132"/>
-      <c r="H100" s="167"/>
+      <c r="H100" s="166"/>
     </row>
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="126"/>
-      <c r="B101" s="171"/>
+      <c r="B101" s="170"/>
       <c r="C101" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F101" s="44" t="s">
         <v>102</v>
       </c>
       <c r="G101" s="132"/>
-      <c r="H101" s="167"/>
+      <c r="H101" s="166"/>
     </row>
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="126"/>
-      <c r="B102" s="171"/>
+      <c r="B102" s="170"/>
       <c r="C102" s="9" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F102" s="44" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G102" s="132"/>
-      <c r="H102" s="167"/>
+      <c r="H102" s="166"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="126"/>
-      <c r="B103" s="171"/>
+      <c r="B103" s="170"/>
       <c r="C103" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D103" s="59">
-        <v>5</v>
+        <v>230</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>431</v>
+        <v>229</v>
       </c>
       <c r="F103" s="44" t="s">
-        <v>417</v>
+        <v>88</v>
       </c>
       <c r="G103" s="132"/>
-      <c r="H103" s="167"/>
+      <c r="H103" s="166"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="126"/>
-      <c r="B104" s="171"/>
+      <c r="B104" s="170"/>
       <c r="C104" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" s="10">
-        <v>0.4</v>
+        <v>231</v>
+      </c>
+      <c r="D104" s="59">
+        <v>5</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>551</v>
+        <v>417</v>
       </c>
       <c r="G104" s="132"/>
-      <c r="H104" s="167"/>
+      <c r="H104" s="166"/>
     </row>
     <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="126"/>
-      <c r="B105" s="171"/>
-      <c r="C105" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="44"/>
+      <c r="B105" s="170"/>
+      <c r="C105" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F105" s="44" t="s">
+        <v>551</v>
+      </c>
       <c r="G105" s="132"/>
-      <c r="H105" s="167"/>
+      <c r="H105" s="166"/>
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="126"/>
-      <c r="B106" s="171"/>
-      <c r="C106" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="F106" s="44" t="s">
-        <v>551</v>
-      </c>
+      <c r="B106" s="170"/>
+      <c r="C106" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106" s="124"/>
+      <c r="E106" s="124"/>
+      <c r="F106" s="44"/>
       <c r="G106" s="132"/>
-      <c r="H106" s="167"/>
+      <c r="H106" s="166"/>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="126"/>
-      <c r="B107" s="171"/>
+      <c r="B107" s="170"/>
       <c r="C107" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>433</v>
+        <v>224</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>434</v>
+        <v>551</v>
       </c>
       <c r="G107" s="132"/>
-      <c r="H107" s="167"/>
+      <c r="H107" s="166"/>
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="126"/>
-      <c r="B108" s="171"/>
+      <c r="B108" s="170"/>
       <c r="C108" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>225</v>
+        <v>433</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>88</v>
+        <v>434</v>
       </c>
       <c r="G108" s="132"/>
-      <c r="H108" s="167"/>
+      <c r="H108" s="166"/>
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="126"/>
-      <c r="B109" s="171"/>
+      <c r="B109" s="170"/>
       <c r="C109" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F109" s="44" t="s">
         <v>88</v>
       </c>
       <c r="G109" s="132"/>
-      <c r="H109" s="167"/>
+      <c r="H109" s="166"/>
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="126"/>
-      <c r="B110" s="171"/>
+      <c r="B110" s="170"/>
       <c r="C110" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G110" s="132"/>
+      <c r="H110" s="166"/>
+    </row>
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="126"/>
+      <c r="B111" s="170"/>
+      <c r="C111" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="32" t="s">
+      <c r="D111" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F110" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" s="132"/>
-      <c r="H110" s="167"/>
-    </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A111" s="127"/>
-      <c r="B111" s="172"/>
-      <c r="C111" s="38" t="s">
+      <c r="F111" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" s="132"/>
+      <c r="H111" s="166"/>
+    </row>
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A112" s="127"/>
+      <c r="B112" s="171"/>
+      <c r="C112" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="D111" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E111" s="60" t="s">
+      <c r="D112" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F112" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G111" s="133"/>
-      <c r="H111" s="168"/>
-    </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A112" s="39" t="s">
+      <c r="G112" s="133"/>
+      <c r="H112" s="167"/>
+    </row>
+    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A113" s="39" t="s">
         <v>26</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C112" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="D112" s="187"/>
-      <c r="E112" s="188"/>
-      <c r="F112" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A113" s="49" t="s">
-        <v>29</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>234</v>
@@ -8091,15 +8134,19 @@
       </c>
       <c r="D113" s="187"/>
       <c r="E113" s="188"/>
-      <c r="F113" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" s="14"/>
-      <c r="H113" s="63"/>
+      <c r="F113" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A114" s="49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>234</v>
@@ -8116,510 +8163,510 @@
       <c r="H114" s="63"/>
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="187"/>
+      <c r="E115" s="188"/>
+      <c r="F115" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="63"/>
+    </row>
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A116" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B116" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="D115" s="209"/>
-      <c r="E115" s="210"/>
-      <c r="F115" s="20" t="s">
+      <c r="C116" s="207" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116" s="208"/>
+      <c r="E116" s="209"/>
+      <c r="F116" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G115" s="21"/>
-      <c r="H115" s="53"/>
-    </row>
-    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="145" t="s">
+      <c r="G116" s="21"/>
+      <c r="H116" s="53"/>
+    </row>
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="B116" s="183" t="s">
+      <c r="B117" s="183" t="s">
         <v>642</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C117" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D116" s="45" t="s">
+      <c r="D117" s="45" t="s">
         <v>643</v>
       </c>
-      <c r="E116" s="108" t="s">
+      <c r="E117" s="108" t="s">
         <v>644</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F117" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="G116" s="213" t="s">
+      <c r="G117" s="213" t="s">
         <v>235</v>
       </c>
-      <c r="H116" s="215" t="s">
+      <c r="H117" s="215" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A117" s="182"/>
-      <c r="B117" s="185"/>
-      <c r="C117" s="38" t="s">
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A118" s="182"/>
+      <c r="B118" s="185"/>
+      <c r="C118" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="47">
+      <c r="D118" s="47">
         <v>1</v>
       </c>
-      <c r="E117" s="109" t="s">
+      <c r="E118" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="F117" s="113" t="s">
+      <c r="F118" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="G117" s="214"/>
-      <c r="H117" s="216"/>
-    </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="125" t="s">
+      <c r="G118" s="214"/>
+      <c r="H118" s="216"/>
+    </row>
+    <row r="119" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B118" s="220" t="s">
+      <c r="B119" s="220" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="110" t="s">
+      <c r="C119" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="D118" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="E118" s="112" t="s">
+      <c r="D119" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="F118" s="134" t="s">
+      <c r="F119" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G118" s="135" t="s">
+      <c r="G119" s="131" t="s">
         <v>239</v>
       </c>
-      <c r="H118" s="136" t="s">
+      <c r="H119" s="134" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="126"/>
-      <c r="B119" s="175"/>
-      <c r="C119" s="124" t="s">
+    <row r="120" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="126"/>
+      <c r="B120" s="174"/>
+      <c r="C120" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="129"/>
-      <c r="G119" s="132"/>
-      <c r="H119" s="122"/>
-    </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A120" s="127"/>
-      <c r="B120" s="176"/>
-      <c r="C120" s="38" t="s">
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
+      <c r="F120" s="129"/>
+      <c r="G120" s="132"/>
+      <c r="H120" s="122"/>
+    </row>
+    <row r="121" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A121" s="127"/>
+      <c r="B121" s="175"/>
+      <c r="C121" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E120" s="33" t="s">
+      <c r="D121" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F120" s="130"/>
-      <c r="G120" s="133"/>
-      <c r="H120" s="123"/>
-    </row>
-    <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="169" t="s">
+      <c r="F121" s="130"/>
+      <c r="G121" s="133"/>
+      <c r="H121" s="123"/>
+    </row>
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="B121" s="174" t="s">
+      <c r="B122" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C122" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D121" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E121" s="31" t="s">
+      <c r="D122" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F121" s="128" t="s">
+      <c r="F122" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="G121" s="131" t="s">
+      <c r="G122" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="H121" s="121" t="s">
+      <c r="H122" s="121" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="126"/>
-      <c r="B122" s="175"/>
-      <c r="C122" s="124" t="s">
+    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="126"/>
+      <c r="B123" s="174"/>
+      <c r="C123" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="D122" s="124"/>
-      <c r="E122" s="124"/>
-      <c r="F122" s="129"/>
-      <c r="G122" s="132"/>
-      <c r="H122" s="122"/>
-    </row>
-    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A123" s="127"/>
-      <c r="B123" s="176"/>
-      <c r="C123" s="38" t="s">
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="129"/>
+      <c r="G123" s="132"/>
+      <c r="H123" s="122"/>
+    </row>
+    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A124" s="127"/>
+      <c r="B124" s="175"/>
+      <c r="C124" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D123" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E123" s="33" t="s">
+      <c r="D124" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E124" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F123" s="130"/>
-      <c r="G123" s="133"/>
-      <c r="H123" s="123"/>
-    </row>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="169" t="s">
+      <c r="F124" s="130"/>
+      <c r="G124" s="133"/>
+      <c r="H124" s="123"/>
+    </row>
+    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="B124" s="174" t="s">
+      <c r="B125" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C125" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D124" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E124" s="31" t="s">
+      <c r="D125" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F124" s="128" t="s">
+      <c r="F125" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="G124" s="131" t="s">
+      <c r="G125" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="H124" s="121" t="s">
+      <c r="H125" s="121" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="126"/>
-      <c r="B125" s="175"/>
-      <c r="C125" s="124" t="s">
+    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="126"/>
+      <c r="B126" s="174"/>
+      <c r="C126" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="129"/>
-      <c r="G125" s="132"/>
-      <c r="H125" s="122"/>
-    </row>
-    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A126" s="127"/>
-      <c r="B126" s="176"/>
-      <c r="C126" s="38" t="s">
+      <c r="D126" s="124"/>
+      <c r="E126" s="124"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="132"/>
+      <c r="H126" s="122"/>
+    </row>
+    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A127" s="127"/>
+      <c r="B127" s="175"/>
+      <c r="C127" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D126" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E126" s="33" t="s">
+      <c r="D127" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F126" s="130"/>
-      <c r="G126" s="133"/>
-      <c r="H126" s="123"/>
-    </row>
-    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="169" t="s">
+      <c r="F127" s="130"/>
+      <c r="G127" s="133"/>
+      <c r="H127" s="123"/>
+    </row>
+    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B127" s="174" t="s">
+      <c r="B128" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C128" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E127" s="31" t="s">
+      <c r="D128" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E128" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F127" s="128" t="s">
+      <c r="F128" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="G127" s="131" t="s">
+      <c r="G128" s="164" t="s">
         <v>239</v>
       </c>
-      <c r="H127" s="121" t="s">
+      <c r="H128" s="121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="126"/>
-      <c r="B128" s="175"/>
-      <c r="C128" s="124" t="s">
+    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="126"/>
+      <c r="B129" s="174"/>
+      <c r="C129" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="D128" s="124"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="129"/>
-      <c r="G128" s="132"/>
-      <c r="H128" s="122"/>
-    </row>
-    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A129" s="127"/>
-      <c r="B129" s="176"/>
-      <c r="C129" s="38" t="s">
+      <c r="D129" s="124"/>
+      <c r="E129" s="124"/>
+      <c r="F129" s="129"/>
+      <c r="G129" s="132"/>
+      <c r="H129" s="122"/>
+    </row>
+    <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A130" s="127"/>
+      <c r="B130" s="175"/>
+      <c r="C130" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E129" s="33" t="s">
+      <c r="D130" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E130" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F129" s="130"/>
-      <c r="G129" s="133"/>
-      <c r="H129" s="123"/>
-    </row>
-    <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="169" t="s">
+      <c r="F130" s="130"/>
+      <c r="G130" s="133"/>
+      <c r="H130" s="123"/>
+    </row>
+    <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="174" t="s">
+      <c r="B131" s="173" t="s">
         <v>234</v>
       </c>
-      <c r="C130" s="36" t="s">
+      <c r="C131" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E130" s="31" t="s">
+      <c r="D131" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E131" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="F130" s="128" t="s">
+      <c r="F131" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="G130" s="131" t="s">
+      <c r="G131" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="H130" s="121" t="s">
+      <c r="H131" s="121" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="126"/>
-      <c r="B131" s="175"/>
-      <c r="C131" s="124" t="s">
+    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="126"/>
+      <c r="B132" s="174"/>
+      <c r="C132" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="D131" s="124"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="129"/>
-      <c r="G131" s="132"/>
-      <c r="H131" s="122"/>
-    </row>
-    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A132" s="179"/>
-      <c r="B132" s="180"/>
-      <c r="C132" s="37" t="s">
+      <c r="D132" s="124"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="129"/>
+      <c r="G132" s="132"/>
+      <c r="H132" s="122"/>
+    </row>
+    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A133" s="179"/>
+      <c r="B133" s="180"/>
+      <c r="C133" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D132" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E132" s="35" t="s">
+      <c r="D133" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E133" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F132" s="177"/>
-      <c r="G132" s="178"/>
-      <c r="H132" s="173"/>
-    </row>
-    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A133" s="49" t="s">
+      <c r="F133" s="177"/>
+      <c r="G133" s="178"/>
+      <c r="H133" s="172"/>
+    </row>
+    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A134" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B134" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C133" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="D133" s="193"/>
-      <c r="E133" s="193"/>
-      <c r="F133" s="13" t="s">
+      <c r="C134" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" s="193"/>
+      <c r="E134" s="193"/>
+      <c r="F134" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G134" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="64" t="s">
+      <c r="H134" s="64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A134" s="43" t="s">
+    <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A135" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B135" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C134" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D134" s="201"/>
-      <c r="E134" s="201"/>
-      <c r="F134" s="20" t="s">
+      <c r="C135" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D135" s="201"/>
+      <c r="E135" s="201"/>
+      <c r="F135" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G135" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H134" s="65" t="s">
+      <c r="H135" s="65" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="169" t="s">
+    <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="B135" s="170" t="s">
+      <c r="B136" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C136" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D135" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E135" s="31" t="s">
+      <c r="D136" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E136" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F136" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="G135" s="131" t="s">
+      <c r="G136" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H135" s="121" t="s">
+      <c r="H136" s="121" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="126"/>
-      <c r="B136" s="171"/>
-      <c r="C136" s="9" t="s">
+    <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="126"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E136" s="32" t="s">
+      <c r="D137" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E137" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="F136" s="44" t="s">
+      <c r="F137" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G136" s="132"/>
-      <c r="H136" s="122"/>
-    </row>
-    <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A137" s="179"/>
-      <c r="B137" s="181"/>
-      <c r="C137" s="37" t="s">
+      <c r="G137" s="132"/>
+      <c r="H137" s="122"/>
+    </row>
+    <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A138" s="179"/>
+      <c r="B138" s="181"/>
+      <c r="C138" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="D137" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E137" s="35" t="s">
+      <c r="D138" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E138" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="F137" s="26" t="s">
+      <c r="F138" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="G137" s="178"/>
-      <c r="H137" s="173"/>
-    </row>
-    <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="169" t="s">
+      <c r="G138" s="178"/>
+      <c r="H138" s="172"/>
+    </row>
+    <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="B138" s="170" t="s">
+      <c r="B139" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C139" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="D138" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E138" s="68" t="s">
+      <c r="D139" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E139" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="F138" s="20" t="s">
+      <c r="F139" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="G138" s="131" t="s">
+      <c r="G139" s="164" t="s">
         <v>253</v>
       </c>
-      <c r="H138" s="121" t="s">
+      <c r="H139" s="121" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="67" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A139" s="126"/>
-      <c r="B139" s="171"/>
-      <c r="C139" s="207" t="s">
+    <row r="140" spans="1:8" s="67" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A140" s="126"/>
+      <c r="B140" s="170"/>
+      <c r="C140" s="210" t="s">
         <v>264</v>
       </c>
-      <c r="D139" s="207"/>
-      <c r="E139" s="207"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="132"/>
-      <c r="H139" s="122"/>
-    </row>
-    <row r="140" spans="1:8" ht="30" customHeight="1">
-      <c r="A140" s="126"/>
-      <c r="B140" s="171"/>
-      <c r="C140" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F140" s="44" t="s">
-        <v>88</v>
-      </c>
+      <c r="D140" s="210"/>
+      <c r="E140" s="210"/>
+      <c r="F140" s="44"/>
       <c r="G140" s="132"/>
       <c r="H140" s="122"/>
     </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:8" ht="30" customHeight="1">
       <c r="A141" s="126"/>
-      <c r="B141" s="171"/>
-      <c r="C141" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E141" s="32" t="s">
-        <v>260</v>
+      <c r="B141" s="170"/>
+      <c r="C141" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F141" s="44" t="s">
         <v>88</v>
@@ -8627,47 +8674,47 @@
       <c r="G141" s="132"/>
       <c r="H141" s="122"/>
     </row>
-    <row r="142" spans="1:8" s="67" customFormat="1" ht="24.95" customHeight="1">
+    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A142" s="126"/>
-      <c r="B142" s="171"/>
-      <c r="C142" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="D142" s="207"/>
-      <c r="E142" s="207"/>
-      <c r="F142" s="44"/>
+      <c r="B142" s="170"/>
+      <c r="C142" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F142" s="44" t="s">
+        <v>88</v>
+      </c>
       <c r="G142" s="132"/>
       <c r="H142" s="122"/>
     </row>
-    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="1:8" s="67" customFormat="1" ht="24.95" customHeight="1">
       <c r="A143" s="126"/>
-      <c r="B143" s="171"/>
-      <c r="C143" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D143" s="66" t="s">
-        <v>262</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="F143" s="44" t="s">
-        <v>51</v>
-      </c>
+      <c r="B143" s="170"/>
+      <c r="C143" s="210" t="s">
+        <v>265</v>
+      </c>
+      <c r="D143" s="210"/>
+      <c r="E143" s="210"/>
+      <c r="F143" s="44"/>
       <c r="G143" s="132"/>
       <c r="H143" s="122"/>
     </row>
     <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A144" s="126"/>
-      <c r="B144" s="171"/>
+      <c r="B144" s="170"/>
       <c r="C144" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>88</v>
+        <v>261</v>
+      </c>
+      <c r="D144" s="66" t="s">
+        <v>262</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F144" s="44" t="s">
         <v>51</v>
@@ -8677,15 +8724,15 @@
     </row>
     <row r="145" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A145" s="126"/>
-      <c r="B145" s="171"/>
+      <c r="B145" s="170"/>
       <c r="C145" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D145" s="66" t="s">
-        <v>262</v>
+        <v>594</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F145" s="44" t="s">
         <v>51</v>
@@ -8695,93 +8742,93 @@
     </row>
     <row r="146" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A146" s="126"/>
-      <c r="B146" s="171"/>
-      <c r="C146" s="124" t="s">
-        <v>602</v>
-      </c>
-      <c r="D146" s="124"/>
-      <c r="E146" s="124"/>
-      <c r="F146" s="44"/>
+      <c r="B146" s="170"/>
+      <c r="C146" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D146" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F146" s="44" t="s">
+        <v>51</v>
+      </c>
       <c r="G146" s="132"/>
       <c r="H146" s="122"/>
     </row>
     <row r="147" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A147" s="126"/>
-      <c r="B147" s="171"/>
-      <c r="C147" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D147" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E147" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="F147" s="44" t="s">
-        <v>30</v>
-      </c>
+      <c r="B147" s="170"/>
+      <c r="C147" s="124" t="s">
+        <v>602</v>
+      </c>
+      <c r="D147" s="124"/>
+      <c r="E147" s="124"/>
+      <c r="F147" s="44"/>
       <c r="G147" s="132"/>
       <c r="H147" s="122"/>
     </row>
     <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A148" s="126"/>
-      <c r="B148" s="171"/>
+      <c r="B148" s="170"/>
       <c r="C148" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D148" s="59">
-        <v>1</v>
+        <v>284</v>
+      </c>
+      <c r="D148" s="10">
+        <v>0.5</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F148" s="44" t="s">
-        <v>557</v>
+        <v>30</v>
       </c>
       <c r="G148" s="132"/>
       <c r="H148" s="122"/>
     </row>
     <row r="149" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A149" s="126"/>
-      <c r="B149" s="171"/>
-      <c r="C149" s="124" t="s">
-        <v>603</v>
-      </c>
-      <c r="D149" s="124"/>
-      <c r="E149" s="124"/>
-      <c r="F149" s="44"/>
+      <c r="B149" s="170"/>
+      <c r="C149" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D149" s="59">
+        <v>1</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="F149" s="44" t="s">
+        <v>557</v>
+      </c>
       <c r="G149" s="132"/>
       <c r="H149" s="122"/>
     </row>
     <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A150" s="126"/>
-      <c r="B150" s="171"/>
-      <c r="C150" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D150" s="59">
-        <v>0</v>
-      </c>
-      <c r="E150" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="F150" s="44" t="s">
-        <v>51</v>
-      </c>
+      <c r="B150" s="170"/>
+      <c r="C150" s="124" t="s">
+        <v>603</v>
+      </c>
+      <c r="D150" s="124"/>
+      <c r="E150" s="124"/>
+      <c r="F150" s="44"/>
       <c r="G150" s="132"/>
       <c r="H150" s="122"/>
     </row>
     <row r="151" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A151" s="126"/>
-      <c r="B151" s="171"/>
+      <c r="B151" s="170"/>
       <c r="C151" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="D151" s="66" t="s">
-        <v>594</v>
+        <v>266</v>
+      </c>
+      <c r="D151" s="59">
+        <v>0</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F151" s="44" t="s">
         <v>51</v>
@@ -8791,15 +8838,15 @@
     </row>
     <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A152" s="126"/>
-      <c r="B152" s="171"/>
+      <c r="B152" s="170"/>
       <c r="C152" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D152" s="66" t="s">
         <v>594</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F152" s="44" t="s">
         <v>51</v>
@@ -8809,15 +8856,15 @@
     </row>
     <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A153" s="126"/>
-      <c r="B153" s="171"/>
+      <c r="B153" s="170"/>
       <c r="C153" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>88</v>
+        <v>599</v>
+      </c>
+      <c r="D153" s="66" t="s">
+        <v>594</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="F153" s="44" t="s">
         <v>51</v>
@@ -8827,15 +8874,15 @@
     </row>
     <row r="154" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A154" s="126"/>
-      <c r="B154" s="171"/>
+      <c r="B154" s="170"/>
       <c r="C154" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F154" s="44" t="s">
         <v>51</v>
@@ -8845,33 +8892,33 @@
     </row>
     <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A155" s="126"/>
-      <c r="B155" s="171"/>
+      <c r="B155" s="170"/>
       <c r="C155" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D155" s="10">
-        <v>0.1</v>
+        <v>632</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E155" s="32" t="s">
-        <v>268</v>
+        <v>633</v>
       </c>
       <c r="F155" s="44" t="s">
-        <v>557</v>
+        <v>51</v>
       </c>
       <c r="G155" s="132"/>
       <c r="H155" s="122"/>
     </row>
     <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A156" s="126"/>
-      <c r="B156" s="171"/>
+      <c r="B156" s="170"/>
       <c r="C156" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D156" s="10">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F156" s="44" t="s">
         <v>557</v>
@@ -8881,51 +8928,51 @@
     </row>
     <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A157" s="126"/>
-      <c r="B157" s="171"/>
+      <c r="B157" s="170"/>
       <c r="C157" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D157" s="10">
-        <v>13.1</v>
+        <v>1E-3</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>438</v>
+        <v>270</v>
       </c>
       <c r="F157" s="44" t="s">
-        <v>439</v>
+        <v>557</v>
       </c>
       <c r="G157" s="132"/>
       <c r="H157" s="122"/>
     </row>
     <row r="158" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A158" s="126"/>
-      <c r="B158" s="171"/>
+      <c r="B158" s="170"/>
       <c r="C158" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D158" s="10">
-        <v>10.6</v>
+        <v>13.1</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F158" s="44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G158" s="132"/>
       <c r="H158" s="122"/>
     </row>
     <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A159" s="126"/>
-      <c r="B159" s="171"/>
+      <c r="B159" s="170"/>
       <c r="C159" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D159" s="10">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F159" s="44" t="s">
         <v>440</v>
@@ -8935,15 +8982,15 @@
     </row>
     <row r="160" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A160" s="126"/>
-      <c r="B160" s="171"/>
+      <c r="B160" s="170"/>
       <c r="C160" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D160" s="10">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F160" s="44" t="s">
         <v>440</v>
@@ -8953,15 +9000,15 @@
     </row>
     <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A161" s="126"/>
-      <c r="B161" s="171"/>
+      <c r="B161" s="170"/>
       <c r="C161" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D161" s="10">
-        <v>8.0000000000000004E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F161" s="44" t="s">
         <v>440</v>
@@ -8971,87 +9018,87 @@
     </row>
     <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A162" s="126"/>
-      <c r="B162" s="171"/>
+      <c r="B162" s="170"/>
       <c r="C162" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D162" s="10">
-        <v>120</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>590</v>
+        <v>446</v>
       </c>
       <c r="F162" s="44" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="G162" s="132"/>
       <c r="H162" s="122"/>
     </row>
     <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="126"/>
-      <c r="B163" s="171"/>
+      <c r="B163" s="170"/>
       <c r="C163" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D163" s="10">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="F163" s="44" t="s">
-        <v>441</v>
+        <v>51</v>
       </c>
       <c r="G163" s="132"/>
       <c r="H163" s="122"/>
     </row>
     <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A164" s="126"/>
-      <c r="B164" s="171"/>
+      <c r="B164" s="170"/>
       <c r="C164" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="D164" s="10">
+        <v>10</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>595</v>
+        <v>442</v>
       </c>
       <c r="F164" s="44" t="s">
-        <v>51</v>
+        <v>441</v>
       </c>
       <c r="G164" s="132"/>
       <c r="H164" s="122"/>
     </row>
     <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A165" s="126"/>
-      <c r="B165" s="171"/>
+      <c r="B165" s="170"/>
       <c r="C165" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D165" s="10">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F165" s="44" t="s">
-        <v>550</v>
+        <v>51</v>
       </c>
       <c r="G165" s="132"/>
       <c r="H165" s="122"/>
     </row>
     <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A166" s="126"/>
-      <c r="B166" s="171"/>
+      <c r="B166" s="170"/>
       <c r="C166" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D166" s="10">
         <v>0</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>283</v>
+        <v>596</v>
       </c>
       <c r="F166" s="44" t="s">
         <v>550</v>
@@ -9061,325 +9108,327 @@
     </row>
     <row r="167" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A167" s="126"/>
-      <c r="B167" s="171"/>
+      <c r="B167" s="170"/>
       <c r="C167" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>605</v>
+        <v>282</v>
+      </c>
+      <c r="D167" s="10">
+        <v>0</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>606</v>
+        <v>283</v>
       </c>
       <c r="F167" s="44" t="s">
-        <v>51</v>
+        <v>550</v>
       </c>
       <c r="G167" s="132"/>
       <c r="H167" s="122"/>
     </row>
     <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="126"/>
-      <c r="B168" s="171"/>
+      <c r="B168" s="170"/>
       <c r="C168" s="9" t="s">
-        <v>259</v>
+        <v>604</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>88</v>
+        <v>605</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>285</v>
+        <v>606</v>
       </c>
       <c r="F168" s="44" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G168" s="132"/>
       <c r="H168" s="122"/>
     </row>
-    <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A169" s="127"/>
-      <c r="B169" s="172"/>
-      <c r="C169" s="38" t="s">
+    <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A169" s="126"/>
+      <c r="B169" s="170"/>
+      <c r="C169" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F169" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G169" s="132"/>
+      <c r="H169" s="122"/>
+    </row>
+    <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A170" s="127"/>
+      <c r="B170" s="171"/>
+      <c r="C170" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="D169" s="30">
+      <c r="D170" s="30">
         <v>1</v>
       </c>
-      <c r="E169" s="33" t="s">
+      <c r="E170" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F169" s="25" t="s">
+      <c r="F170" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="G169" s="133"/>
-      <c r="H169" s="123"/>
-    </row>
-    <row r="170" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A170" s="49" t="s">
+      <c r="G170" s="133"/>
+      <c r="H170" s="123"/>
+    </row>
+    <row r="171" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A171" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B170" s="40" t="s">
+      <c r="B171" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="C170" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="D170" s="192"/>
-      <c r="E170" s="192"/>
-      <c r="F170" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G170" s="14" t="s">
+      <c r="C171" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="D171" s="192"/>
+      <c r="E171" s="192"/>
+      <c r="F171" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G171" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H170" s="42" t="s">
+      <c r="H171" s="42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A171" s="18" t="s">
+    <row r="172" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A172" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B171" s="40" t="s">
+      <c r="B172" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="C171" s="219" t="s">
-        <v>88</v>
-      </c>
-      <c r="D171" s="219"/>
-      <c r="E171" s="219"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="21" t="s">
+      <c r="C172" s="219" t="s">
+        <v>88</v>
+      </c>
+      <c r="D172" s="219"/>
+      <c r="E172" s="219"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H171" s="70" t="s">
+      <c r="H172" s="70" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A172" s="18" t="s">
+    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A173" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B173" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C172" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D172" s="201"/>
-      <c r="E172" s="201"/>
-      <c r="F172" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G172" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="H172" s="53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="169" t="s">
-        <v>52</v>
-      </c>
-      <c r="B173" s="170" t="s">
-        <v>581</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D173" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E173" s="31" t="s">
-        <v>450</v>
-      </c>
+      <c r="C173" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" s="201"/>
+      <c r="E173" s="201"/>
       <c r="F173" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G173" s="131" t="s">
+      <c r="G173" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H173" s="53" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A174" s="168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B174" s="169" t="s">
+        <v>581</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="F174" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G174" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H173" s="198" t="s">
+      <c r="H174" s="198" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="126"/>
-      <c r="B174" s="171"/>
-      <c r="C174" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E174" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="F174" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G174" s="132"/>
-      <c r="H174" s="199"/>
     </row>
     <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A175" s="126"/>
-      <c r="B175" s="171"/>
+      <c r="B175" s="170"/>
       <c r="C175" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D175" s="10">
-        <v>-6.49</v>
+        <v>295</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F175" s="44" t="s">
-        <v>449</v>
+        <v>51</v>
       </c>
       <c r="G175" s="132"/>
       <c r="H175" s="199"/>
     </row>
-    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A176" s="179"/>
-      <c r="B176" s="181"/>
-      <c r="C176" s="37" t="s">
+    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A176" s="126"/>
+      <c r="B176" s="170"/>
+      <c r="C176" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D176" s="10">
+        <v>-6.49</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F176" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="G176" s="132"/>
+      <c r="H176" s="199"/>
+    </row>
+    <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A177" s="179"/>
+      <c r="B177" s="181"/>
+      <c r="C177" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="D176" s="34">
+      <c r="D177" s="34">
         <v>0</v>
       </c>
-      <c r="E176" s="35" t="s">
+      <c r="E177" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="F176" s="25"/>
-      <c r="G176" s="178"/>
-      <c r="H176" s="200"/>
-    </row>
-    <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="169" t="s">
+      <c r="F177" s="25"/>
+      <c r="G177" s="178"/>
+      <c r="H177" s="200"/>
+    </row>
+    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="B177" s="170" t="s">
+      <c r="B178" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C177" s="36" t="s">
+      <c r="C178" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="D177" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E177" s="31" t="s">
+      <c r="D178" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E178" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="F177" s="20" t="s">
+      <c r="F178" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="G177" s="131" t="s">
+      <c r="G178" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H177" s="198" t="s">
+      <c r="H178" s="198" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="126"/>
-      <c r="B178" s="171"/>
-      <c r="C178" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E178" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="F178" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="G178" s="132"/>
-      <c r="H178" s="199"/>
     </row>
     <row r="179" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A179" s="126"/>
-      <c r="B179" s="171"/>
+      <c r="B179" s="170"/>
       <c r="C179" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D179" s="10">
-        <v>12.1</v>
+        <v>302</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>560</v>
+        <v>301</v>
       </c>
       <c r="F179" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G179" s="132"/>
       <c r="H179" s="199"/>
     </row>
     <row r="180" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A180" s="126"/>
-      <c r="B180" s="171"/>
+      <c r="B180" s="170"/>
       <c r="C180" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D180" s="10">
-        <v>1.4</v>
+        <v>12.1</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>305</v>
+        <v>560</v>
       </c>
       <c r="F180" s="44" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G180" s="132"/>
       <c r="H180" s="199"/>
     </row>
     <row r="181" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A181" s="126"/>
-      <c r="B181" s="171"/>
+      <c r="B181" s="170"/>
       <c r="C181" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D181" s="10">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>562</v>
+        <v>305</v>
       </c>
       <c r="F181" s="44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G181" s="132"/>
       <c r="H181" s="199"/>
     </row>
     <row r="182" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A182" s="126"/>
-      <c r="B182" s="171"/>
+      <c r="B182" s="170"/>
       <c r="C182" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D182" s="10">
-        <v>40.299999999999997</v>
+        <v>4.2</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="F182" s="44"/>
+        <v>562</v>
+      </c>
+      <c r="F182" s="44" t="s">
+        <v>565</v>
+      </c>
       <c r="G182" s="132"/>
       <c r="H182" s="199"/>
     </row>
     <row r="183" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A183" s="126"/>
-      <c r="B183" s="171"/>
+      <c r="B183" s="170"/>
       <c r="C183" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D183" s="10">
-        <v>19.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>561</v>
+        <v>308</v>
       </c>
       <c r="F183" s="44"/>
       <c r="G183" s="132"/>
@@ -9387,51 +9436,49 @@
     </row>
     <row r="184" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A184" s="126"/>
-      <c r="B184" s="171"/>
+      <c r="B184" s="170"/>
       <c r="C184" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D184" s="10">
-        <v>0.6</v>
+        <v>19.5</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="F184" s="44" t="s">
-        <v>563</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="F184" s="44"/>
       <c r="G184" s="132"/>
       <c r="H184" s="199"/>
     </row>
     <row r="185" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A185" s="126"/>
-      <c r="B185" s="171"/>
+      <c r="B185" s="170"/>
       <c r="C185" s="9" t="s">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="D185" s="10">
-        <v>-0.49299999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F185" s="44" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="G185" s="132"/>
       <c r="H185" s="199"/>
     </row>
     <row r="186" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A186" s="126"/>
-      <c r="B186" s="171"/>
+      <c r="B186" s="170"/>
       <c r="C186" s="9" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="D186" s="10">
-        <v>-2.9750000000000001</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F186" s="44" t="s">
         <v>551</v>
@@ -9441,15 +9488,15 @@
     </row>
     <row r="187" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A187" s="126"/>
-      <c r="B187" s="171"/>
+      <c r="B187" s="170"/>
       <c r="C187" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D187" s="10">
-        <v>2</v>
+        <v>-2.9750000000000001</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>313</v>
+        <v>568</v>
       </c>
       <c r="F187" s="44" t="s">
         <v>551</v>
@@ -9459,71 +9506,71 @@
     </row>
     <row r="188" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A188" s="126"/>
-      <c r="B188" s="171"/>
+      <c r="B188" s="170"/>
       <c r="C188" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D188" s="10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F188" s="44" t="s">
-        <v>17</v>
+        <v>551</v>
       </c>
       <c r="G188" s="132"/>
       <c r="H188" s="199"/>
     </row>
-    <row r="189" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="189" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A189" s="126"/>
-      <c r="B189" s="171"/>
-      <c r="C189" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="D189" s="34">
-        <v>0</v>
-      </c>
-      <c r="E189" s="35" t="s">
-        <v>316</v>
+      <c r="B189" s="170"/>
+      <c r="C189" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D189" s="10">
+        <v>20</v>
+      </c>
+      <c r="E189" s="32" t="s">
+        <v>314</v>
       </c>
       <c r="F189" s="44" t="s">
-        <v>550</v>
+        <v>17</v>
       </c>
       <c r="G189" s="132"/>
       <c r="H189" s="199"/>
     </row>
-    <row r="190" spans="1:8" ht="24.95" customHeight="1">
+    <row r="190" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A190" s="126"/>
-      <c r="B190" s="211"/>
-      <c r="C190" s="95" t="s">
-        <v>318</v>
-      </c>
-      <c r="D190" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="E190" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="F190" s="83"/>
+      <c r="B190" s="170"/>
+      <c r="C190" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D190" s="34">
+        <v>0</v>
+      </c>
+      <c r="E190" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="F190" s="44" t="s">
+        <v>550</v>
+      </c>
       <c r="G190" s="132"/>
       <c r="H190" s="199"/>
     </row>
-    <row r="191" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="191" spans="1:8" ht="24.95" customHeight="1">
       <c r="A191" s="126"/>
       <c r="B191" s="211"/>
-      <c r="C191" s="96" t="s">
-        <v>321</v>
-      </c>
-      <c r="D191" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="E191" s="90" t="s">
-        <v>320</v>
-      </c>
-      <c r="F191" s="83" t="s">
-        <v>569</v>
-      </c>
+      <c r="C191" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D191" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="E191" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="F191" s="83"/>
       <c r="G191" s="132"/>
       <c r="H191" s="199"/>
     </row>
@@ -9531,16 +9578,16 @@
       <c r="A192" s="126"/>
       <c r="B192" s="211"/>
       <c r="C192" s="96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D192" s="84" t="s">
         <v>88</v>
       </c>
       <c r="E192" s="90" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F192" s="83" t="s">
-        <v>88</v>
+        <v>569</v>
       </c>
       <c r="G192" s="132"/>
       <c r="H192" s="199"/>
@@ -9549,13 +9596,13 @@
       <c r="A193" s="126"/>
       <c r="B193" s="211"/>
       <c r="C193" s="96" t="s">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="D193" s="84" t="s">
         <v>88</v>
       </c>
       <c r="E193" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F193" s="83" t="s">
         <v>88</v>
@@ -9567,13 +9614,13 @@
       <c r="A194" s="126"/>
       <c r="B194" s="211"/>
       <c r="C194" s="96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D194" s="84" t="s">
         <v>88</v>
       </c>
       <c r="E194" s="90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F194" s="83" t="s">
         <v>88</v>
@@ -9585,16 +9632,16 @@
       <c r="A195" s="126"/>
       <c r="B195" s="211"/>
       <c r="C195" s="96" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="D195" s="84" t="s">
         <v>88</v>
       </c>
       <c r="E195" s="90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F195" s="83" t="s">
-        <v>570</v>
+        <v>88</v>
       </c>
       <c r="G195" s="132"/>
       <c r="H195" s="199"/>
@@ -9603,16 +9650,16 @@
       <c r="A196" s="126"/>
       <c r="B196" s="211"/>
       <c r="C196" s="96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D196" s="84" t="s">
         <v>88</v>
       </c>
       <c r="E196" s="90" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F196" s="83" t="s">
-        <v>88</v>
+        <v>570</v>
       </c>
       <c r="G196" s="132"/>
       <c r="H196" s="199"/>
@@ -9621,16 +9668,16 @@
       <c r="A197" s="126"/>
       <c r="B197" s="211"/>
       <c r="C197" s="96" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D197" s="84" t="s">
         <v>88</v>
       </c>
       <c r="E197" s="90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F197" s="83" t="s">
-        <v>571</v>
+        <v>88</v>
       </c>
       <c r="G197" s="132"/>
       <c r="H197" s="199"/>
@@ -9639,85 +9686,87 @@
       <c r="A198" s="126"/>
       <c r="B198" s="211"/>
       <c r="C198" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="D198" s="84">
-        <v>1.9E-2</v>
+        <v>331</v>
+      </c>
+      <c r="D198" s="84" t="s">
+        <v>88</v>
       </c>
       <c r="E198" s="90" t="s">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="F198" s="83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G198" s="132"/>
       <c r="H198" s="199"/>
     </row>
-    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A199" s="179"/>
-      <c r="B199" s="212"/>
-      <c r="C199" s="97" t="s">
+    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A199" s="126"/>
+      <c r="B199" s="211"/>
+      <c r="C199" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="D199" s="84">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E199" s="90" t="s">
+        <v>452</v>
+      </c>
+      <c r="F199" s="83" t="s">
+        <v>572</v>
+      </c>
+      <c r="G199" s="132"/>
+      <c r="H199" s="199"/>
+    </row>
+    <row r="200" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A200" s="179"/>
+      <c r="B200" s="212"/>
+      <c r="C200" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="D199" s="98">
+      <c r="D200" s="98">
         <v>5</v>
       </c>
-      <c r="E199" s="99" t="s">
+      <c r="E200" s="99" t="s">
         <v>593</v>
       </c>
-      <c r="F199" s="83" t="s">
+      <c r="F200" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="G199" s="178"/>
-      <c r="H199" s="200"/>
-    </row>
-    <row r="200" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A200" s="169" t="s">
+      <c r="G200" s="178"/>
+      <c r="H200" s="200"/>
+    </row>
+    <row r="201" spans="1:8" ht="24.95" customHeight="1">
+      <c r="A201" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="B200" s="170" t="s">
+      <c r="B201" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C200" s="217" t="s">
+      <c r="C201" s="217" t="s">
         <v>334</v>
       </c>
-      <c r="D200" s="217"/>
-      <c r="E200" s="217"/>
-      <c r="F200" s="128"/>
-      <c r="G200" s="131" t="s">
+      <c r="D201" s="217"/>
+      <c r="E201" s="217"/>
+      <c r="F201" s="176"/>
+      <c r="G201" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H200" s="121" t="s">
+      <c r="H201" s="121" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="126"/>
-      <c r="B201" s="171"/>
-      <c r="C201" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E201" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="F201" s="129"/>
-      <c r="G201" s="132"/>
-      <c r="H201" s="122"/>
     </row>
     <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A202" s="126"/>
-      <c r="B202" s="171"/>
+      <c r="B202" s="170"/>
       <c r="C202" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F202" s="129"/>
       <c r="G202" s="132"/>
@@ -9725,15 +9774,15 @@
     </row>
     <row r="203" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A203" s="126"/>
-      <c r="B203" s="171"/>
+      <c r="B203" s="170"/>
       <c r="C203" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E203" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F203" s="129"/>
       <c r="G203" s="132"/>
@@ -9741,15 +9790,15 @@
     </row>
     <row r="204" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A204" s="126"/>
-      <c r="B204" s="171"/>
+      <c r="B204" s="170"/>
       <c r="C204" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F204" s="129"/>
       <c r="G204" s="132"/>
@@ -9757,59 +9806,59 @@
     </row>
     <row r="205" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A205" s="126"/>
-      <c r="B205" s="171"/>
+      <c r="B205" s="170"/>
       <c r="C205" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F205" s="129"/>
       <c r="G205" s="132"/>
       <c r="H205" s="122"/>
     </row>
-    <row r="206" spans="1:8" ht="24.95" customHeight="1">
+    <row r="206" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A206" s="126"/>
-      <c r="B206" s="171"/>
-      <c r="C206" s="218" t="s">
-        <v>345</v>
-      </c>
-      <c r="D206" s="218"/>
-      <c r="E206" s="218"/>
+      <c r="B206" s="170"/>
+      <c r="C206" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E206" s="32" t="s">
+        <v>344</v>
+      </c>
       <c r="F206" s="129"/>
       <c r="G206" s="132"/>
       <c r="H206" s="122"/>
     </row>
-    <row r="207" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="207" spans="1:8" ht="24.95" customHeight="1">
       <c r="A207" s="126"/>
-      <c r="B207" s="171"/>
-      <c r="C207" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E207" s="32" t="s">
-        <v>346</v>
-      </c>
+      <c r="B207" s="170"/>
+      <c r="C207" s="218" t="s">
+        <v>345</v>
+      </c>
+      <c r="D207" s="218"/>
+      <c r="E207" s="218"/>
       <c r="F207" s="129"/>
       <c r="G207" s="132"/>
       <c r="H207" s="122"/>
     </row>
     <row r="208" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A208" s="126"/>
-      <c r="B208" s="171"/>
+      <c r="B208" s="170"/>
       <c r="C208" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E208" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F208" s="129"/>
       <c r="G208" s="132"/>
@@ -9817,15 +9866,15 @@
     </row>
     <row r="209" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A209" s="126"/>
-      <c r="B209" s="171"/>
+      <c r="B209" s="170"/>
       <c r="C209" s="9" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F209" s="129"/>
       <c r="G209" s="132"/>
@@ -9833,497 +9882,497 @@
     </row>
     <row r="210" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A210" s="126"/>
-      <c r="B210" s="171"/>
+      <c r="B210" s="170"/>
       <c r="C210" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E210" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F210" s="129"/>
       <c r="G210" s="132"/>
       <c r="H210" s="122"/>
     </row>
-    <row r="211" spans="1:8" ht="24.95" customHeight="1">
+    <row r="211" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A211" s="126"/>
-      <c r="B211" s="171"/>
-      <c r="C211" s="218" t="s">
-        <v>352</v>
-      </c>
-      <c r="D211" s="218"/>
-      <c r="E211" s="218"/>
+      <c r="B211" s="170"/>
+      <c r="C211" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E211" s="32" t="s">
+        <v>351</v>
+      </c>
       <c r="F211" s="129"/>
       <c r="G211" s="132"/>
       <c r="H211" s="122"/>
     </row>
-    <row r="212" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="212" spans="1:8" ht="24.95" customHeight="1">
       <c r="A212" s="126"/>
-      <c r="B212" s="171"/>
-      <c r="C212" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D212" s="10">
-        <v>0</v>
-      </c>
-      <c r="E212" s="32" t="s">
-        <v>353</v>
-      </c>
+      <c r="B212" s="170"/>
+      <c r="C212" s="218" t="s">
+        <v>352</v>
+      </c>
+      <c r="D212" s="218"/>
+      <c r="E212" s="218"/>
       <c r="F212" s="129"/>
       <c r="G212" s="132"/>
       <c r="H212" s="122"/>
     </row>
-    <row r="213" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A213" s="127"/>
-      <c r="B213" s="172"/>
-      <c r="C213" s="38" t="s">
+    <row r="213" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A213" s="126"/>
+      <c r="B213" s="170"/>
+      <c r="C213" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D213" s="10">
+        <v>0</v>
+      </c>
+      <c r="E213" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F213" s="129"/>
+      <c r="G213" s="132"/>
+      <c r="H213" s="122"/>
+    </row>
+    <row r="214" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A214" s="127"/>
+      <c r="B214" s="171"/>
+      <c r="C214" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D213" s="30">
+      <c r="D214" s="30">
         <v>0</v>
       </c>
-      <c r="E213" s="33" t="s">
+      <c r="E214" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="F213" s="130"/>
-      <c r="G213" s="133"/>
-      <c r="H213" s="123"/>
-    </row>
-    <row r="214" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A214" s="73" t="s">
+      <c r="F214" s="130"/>
+      <c r="G214" s="133"/>
+      <c r="H214" s="123"/>
+    </row>
+    <row r="215" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A215" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B215" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C214" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D214" s="201"/>
-      <c r="E214" s="201"/>
-      <c r="F214" s="74" t="s">
+      <c r="C215" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D215" s="201"/>
+      <c r="E215" s="201"/>
+      <c r="F215" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="G214" s="21" t="s">
+      <c r="G215" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H214" s="22" t="s">
+      <c r="H215" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A215" s="169" t="s">
+    <row r="216" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A216" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="B215" s="170" t="s">
+      <c r="B216" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C215" s="36" t="s">
+      <c r="C216" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="D215" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E215" s="31" t="s">
+      <c r="D216" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E216" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="F215" s="81"/>
-      <c r="G215" s="131" t="s">
+      <c r="F216" s="81"/>
+      <c r="G216" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H215" s="198" t="s">
+      <c r="H216" s="198" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A216" s="126"/>
-      <c r="B216" s="171"/>
-      <c r="C216" s="72" t="s">
+    <row r="217" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A217" s="126"/>
+      <c r="B217" s="170"/>
+      <c r="C217" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D216" s="10">
+      <c r="D217" s="10">
         <v>0</v>
       </c>
-      <c r="E216" s="32" t="s">
+      <c r="E217" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F216" s="80"/>
-      <c r="G216" s="132"/>
-      <c r="H216" s="199"/>
-    </row>
-    <row r="217" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A217" s="179"/>
-      <c r="B217" s="181"/>
-      <c r="C217" s="37" t="s">
+      <c r="F217" s="80"/>
+      <c r="G217" s="132"/>
+      <c r="H217" s="199"/>
+    </row>
+    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A218" s="179"/>
+      <c r="B218" s="181"/>
+      <c r="C218" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D217" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E217" s="35" t="s">
+      <c r="D218" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E218" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="F217" s="82" t="s">
+      <c r="F218" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G217" s="178"/>
-      <c r="H217" s="200"/>
-    </row>
-    <row r="218" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A218" s="11" t="s">
+      <c r="G218" s="178"/>
+      <c r="H218" s="200"/>
+    </row>
+    <row r="219" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A219" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B219" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C218" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="D218" s="193"/>
-      <c r="E218" s="193"/>
-      <c r="F218" s="13" t="s">
+      <c r="C219" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="D219" s="193"/>
+      <c r="E219" s="193"/>
+      <c r="F219" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G218" s="14" t="s">
+      <c r="G219" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="H218" s="15" t="s">
+      <c r="H219" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A219" s="18" t="s">
+    <row r="220" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A220" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B219" s="19" t="s">
+      <c r="B220" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C219" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D219" s="201"/>
-      <c r="E219" s="201"/>
-      <c r="F219" s="20" t="s">
+      <c r="C220" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D220" s="201"/>
+      <c r="E220" s="201"/>
+      <c r="F220" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G219" s="21" t="s">
+      <c r="G220" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H219" s="22" t="s">
+      <c r="H220" s="22" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A220" s="169" t="s">
+    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A221" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="B220" s="170" t="s">
+      <c r="B221" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C220" s="36" t="s">
+      <c r="C221" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="D220" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E220" s="31" t="s">
+      <c r="D221" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E221" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="F220" s="20" t="s">
+      <c r="F221" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="G220" s="131" t="s">
+      <c r="G221" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H220" s="198" t="s">
+      <c r="H221" s="198" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A221" s="126"/>
-      <c r="B221" s="171"/>
-      <c r="C221" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D221" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E221" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="F221" s="44"/>
-      <c r="G221" s="132"/>
-      <c r="H221" s="199"/>
     </row>
     <row r="222" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A222" s="126"/>
-      <c r="B222" s="171"/>
-      <c r="C222" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="D222" s="10">
-        <v>0.84</v>
+      <c r="B222" s="170"/>
+      <c r="C222" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F222" s="44" t="s">
-        <v>30</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F222" s="44"/>
       <c r="G222" s="132"/>
       <c r="H222" s="199"/>
     </row>
     <row r="223" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A223" s="126"/>
-      <c r="B223" s="171"/>
-      <c r="C223" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D223" s="75" t="s">
-        <v>369</v>
+      <c r="B223" s="170"/>
+      <c r="C223" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="D223" s="10">
+        <v>0.84</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="F223" s="44" t="s">
-        <v>417</v>
+        <v>30</v>
       </c>
       <c r="G223" s="132"/>
       <c r="H223" s="199"/>
     </row>
     <row r="224" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A224" s="126"/>
-      <c r="B224" s="171"/>
+      <c r="B224" s="170"/>
       <c r="C224" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>88</v>
+        <v>368</v>
+      </c>
+      <c r="D224" s="75" t="s">
+        <v>369</v>
       </c>
       <c r="E224" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="F224" s="44"/>
+        <v>455</v>
+      </c>
+      <c r="F224" s="44" t="s">
+        <v>417</v>
+      </c>
       <c r="G224" s="132"/>
       <c r="H224" s="199"/>
     </row>
     <row r="225" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A225" s="126"/>
-      <c r="B225" s="171"/>
-      <c r="C225" s="71" t="s">
-        <v>371</v>
-      </c>
-      <c r="D225" s="10">
-        <v>0.89</v>
+      <c r="B225" s="170"/>
+      <c r="C225" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E225" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="F225" s="44" t="s">
-        <v>30</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="F225" s="44"/>
       <c r="G225" s="132"/>
       <c r="H225" s="199"/>
     </row>
     <row r="226" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="126"/>
-      <c r="B226" s="171"/>
-      <c r="C226" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D226" s="75" t="s">
-        <v>369</v>
+      <c r="B226" s="170"/>
+      <c r="C226" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="D226" s="10">
+        <v>0.89</v>
       </c>
       <c r="E226" s="32" t="s">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="F226" s="44" t="s">
-        <v>417</v>
+        <v>30</v>
       </c>
       <c r="G226" s="132"/>
       <c r="H226" s="199"/>
     </row>
     <row r="227" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A227" s="126"/>
-      <c r="B227" s="171"/>
+      <c r="B227" s="170"/>
       <c r="C227" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>88</v>
+        <v>372</v>
+      </c>
+      <c r="D227" s="75" t="s">
+        <v>369</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="F227" s="44"/>
+        <v>456</v>
+      </c>
+      <c r="F227" s="44" t="s">
+        <v>417</v>
+      </c>
       <c r="G227" s="132"/>
       <c r="H227" s="199"/>
     </row>
     <row r="228" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A228" s="126"/>
-      <c r="B228" s="171"/>
-      <c r="C228" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="D228" s="10">
-        <v>0.89</v>
+      <c r="B228" s="170"/>
+      <c r="C228" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F228" s="44" t="s">
-        <v>30</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="F228" s="44"/>
       <c r="G228" s="132"/>
       <c r="H228" s="199"/>
     </row>
     <row r="229" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A229" s="126"/>
-      <c r="B229" s="171"/>
-      <c r="C229" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D229" s="75" t="s">
-        <v>369</v>
+      <c r="B229" s="170"/>
+      <c r="C229" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="D229" s="10">
+        <v>0.89</v>
       </c>
       <c r="E229" s="32" t="s">
-        <v>457</v>
+        <v>379</v>
       </c>
       <c r="F229" s="44" t="s">
-        <v>417</v>
+        <v>30</v>
       </c>
       <c r="G229" s="132"/>
       <c r="H229" s="199"/>
     </row>
-    <row r="230" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A230" s="179"/>
-      <c r="B230" s="181"/>
-      <c r="C230" s="37" t="s">
+    <row r="230" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A230" s="126"/>
+      <c r="B230" s="170"/>
+      <c r="C230" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D230" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="E230" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="F230" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="G230" s="132"/>
+      <c r="H230" s="199"/>
+    </row>
+    <row r="231" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A231" s="179"/>
+      <c r="B231" s="181"/>
+      <c r="C231" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="D230" s="34">
+      <c r="D231" s="34">
         <v>2005</v>
       </c>
-      <c r="E230" s="35" t="s">
+      <c r="E231" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="F230" s="25"/>
-      <c r="G230" s="178"/>
-      <c r="H230" s="200"/>
-    </row>
-    <row r="231" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A231" s="11" t="s">
+      <c r="F231" s="25"/>
+      <c r="G231" s="178"/>
+      <c r="H231" s="200"/>
+    </row>
+    <row r="232" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A232" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B231" s="76" t="s">
+      <c r="B232" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="C231" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="D231" s="193"/>
-      <c r="E231" s="193"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="14" t="s">
+      <c r="C232" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="D232" s="193"/>
+      <c r="E232" s="193"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H231" s="15" t="s">
+      <c r="H232" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A232" s="18" t="s">
+    <row r="233" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A233" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B232" s="78" t="s">
+      <c r="B233" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C232" s="201" t="s">
-        <v>88</v>
-      </c>
-      <c r="D232" s="201"/>
-      <c r="E232" s="201"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="21" t="s">
+      <c r="C233" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="D233" s="201"/>
+      <c r="E233" s="201"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H232" s="22" t="s">
+      <c r="H233" s="22" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A233" s="169" t="s">
+    <row r="234" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A234" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="B233" s="170" t="s">
+      <c r="B234" s="169" t="s">
         <v>581</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C234" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D233" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E233" s="31" t="s">
+      <c r="D234" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E234" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F233" s="20" t="s">
+      <c r="F234" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G233" s="131" t="s">
+      <c r="G234" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="H233" s="121" t="s">
+      <c r="H234" s="121" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A234" s="126"/>
-      <c r="B234" s="171"/>
-      <c r="C234" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E234" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="F234" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G234" s="132"/>
-      <c r="H234" s="122"/>
     </row>
     <row r="235" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A235" s="126"/>
-      <c r="B235" s="171"/>
-      <c r="C235" s="9" t="s">
-        <v>74</v>
+      <c r="B235" s="170"/>
+      <c r="C235" s="71" t="s">
+        <v>70</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E235" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="F235" s="44"/>
+        <v>387</v>
+      </c>
+      <c r="F235" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="G235" s="132"/>
       <c r="H235" s="122"/>
     </row>
     <row r="236" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A236" s="126"/>
-      <c r="B236" s="171"/>
+      <c r="B236" s="170"/>
       <c r="C236" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D236" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E236" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F236" s="44"/>
       <c r="G236" s="132"/>
@@ -10331,61 +10380,61 @@
     </row>
     <row r="237" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A237" s="126"/>
-      <c r="B237" s="171"/>
-      <c r="C237" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="D237" s="124"/>
-      <c r="E237" s="124"/>
+      <c r="B237" s="170"/>
+      <c r="C237" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>386</v>
+      </c>
       <c r="F237" s="44"/>
       <c r="G237" s="132"/>
       <c r="H237" s="122"/>
     </row>
     <row r="238" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A238" s="126"/>
-      <c r="B238" s="171"/>
-      <c r="C238" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D238" s="10">
-        <v>100</v>
-      </c>
-      <c r="E238" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="F238" s="44" t="s">
-        <v>72</v>
-      </c>
+      <c r="B238" s="170"/>
+      <c r="C238" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="D238" s="124"/>
+      <c r="E238" s="124"/>
+      <c r="F238" s="44"/>
       <c r="G238" s="132"/>
       <c r="H238" s="122"/>
     </row>
     <row r="239" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A239" s="126"/>
-      <c r="B239" s="171"/>
-      <c r="C239" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>88</v>
+      <c r="B239" s="170"/>
+      <c r="C239" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D239" s="10">
+        <v>100</v>
       </c>
       <c r="E239" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="F239" s="44"/>
+        <v>458</v>
+      </c>
+      <c r="F239" s="44" t="s">
+        <v>72</v>
+      </c>
       <c r="G239" s="132"/>
       <c r="H239" s="122"/>
     </row>
     <row r="240" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A240" s="126"/>
-      <c r="B240" s="171"/>
-      <c r="C240" s="79" t="s">
-        <v>77</v>
+      <c r="B240" s="170"/>
+      <c r="C240" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F240" s="44"/>
       <c r="G240" s="132"/>
@@ -10393,15 +10442,15 @@
     </row>
     <row r="241" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A241" s="126"/>
-      <c r="B241" s="171"/>
-      <c r="C241" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D241" s="77" t="s">
-        <v>390</v>
+      <c r="B241" s="170"/>
+      <c r="C241" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E241" s="32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F241" s="44"/>
       <c r="G241" s="132"/>
@@ -10409,15 +10458,15 @@
     </row>
     <row r="242" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A242" s="126"/>
-      <c r="B242" s="171"/>
+      <c r="B242" s="170"/>
       <c r="C242" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D242" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="D242" s="59">
-        <v>1</v>
-      </c>
       <c r="E242" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F242" s="44"/>
       <c r="G242" s="132"/>
@@ -10425,15 +10474,15 @@
     </row>
     <row r="243" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A243" s="126"/>
-      <c r="B243" s="171"/>
+      <c r="B243" s="170"/>
       <c r="C243" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D243" s="59">
         <v>1</v>
       </c>
       <c r="E243" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F243" s="44"/>
       <c r="G243" s="132"/>
@@ -10441,45 +10490,43 @@
     </row>
     <row r="244" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A244" s="126"/>
-      <c r="B244" s="171"/>
+      <c r="B244" s="170"/>
       <c r="C244" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D244" s="10">
-        <v>100</v>
+        <v>393</v>
+      </c>
+      <c r="D244" s="59">
+        <v>1</v>
       </c>
       <c r="E244" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="F244" s="44" t="s">
-        <v>417</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="F244" s="44"/>
       <c r="G244" s="132"/>
       <c r="H244" s="122"/>
     </row>
     <row r="245" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A245" s="126"/>
-      <c r="B245" s="171"/>
+      <c r="B245" s="170"/>
       <c r="C245" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D245" s="59">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="D245" s="10">
+        <v>100</v>
       </c>
       <c r="E245" s="32" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="F245" s="44" t="s">
-        <v>648</v>
+        <v>417</v>
       </c>
       <c r="G245" s="132"/>
       <c r="H245" s="122"/>
     </row>
     <row r="246" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A246" s="126"/>
-      <c r="B246" s="171"/>
+      <c r="B246" s="170"/>
       <c r="C246" s="9" t="s">
-        <v>646</v>
+        <v>395</v>
       </c>
       <c r="D246" s="59">
         <v>1</v>
@@ -10495,33 +10542,33 @@
     </row>
     <row r="247" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A247" s="126"/>
-      <c r="B247" s="171"/>
+      <c r="B247" s="170"/>
       <c r="C247" s="9" t="s">
-        <v>397</v>
+        <v>646</v>
       </c>
       <c r="D247" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247" s="32" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="F247" s="44" t="s">
-        <v>459</v>
+        <v>648</v>
       </c>
       <c r="G247" s="132"/>
       <c r="H247" s="122"/>
     </row>
     <row r="248" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A248" s="126"/>
-      <c r="B248" s="171"/>
+      <c r="B248" s="170"/>
       <c r="C248" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D248" s="59">
         <v>0</v>
       </c>
       <c r="E248" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F248" s="44" t="s">
         <v>459</v>
@@ -10531,33 +10578,33 @@
     </row>
     <row r="249" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A249" s="126"/>
-      <c r="B249" s="171"/>
+      <c r="B249" s="170"/>
       <c r="C249" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D249" s="10" t="s">
-        <v>88</v>
+        <v>398</v>
+      </c>
+      <c r="D249" s="59">
+        <v>0</v>
       </c>
       <c r="E249" s="32" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="F249" s="44" t="s">
-        <v>102</v>
+        <v>459</v>
       </c>
       <c r="G249" s="132"/>
       <c r="H249" s="122"/>
     </row>
     <row r="250" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A250" s="126"/>
-      <c r="B250" s="171"/>
+      <c r="B250" s="170"/>
       <c r="C250" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F250" s="44" t="s">
         <v>102</v>
@@ -10567,131 +10614,127 @@
     </row>
     <row r="251" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A251" s="126"/>
-      <c r="B251" s="171"/>
+      <c r="B251" s="170"/>
       <c r="C251" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D251" s="10">
-        <v>0</v>
+        <v>401</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E251" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="F251" s="44"/>
+        <v>402</v>
+      </c>
+      <c r="F251" s="44" t="s">
+        <v>102</v>
+      </c>
       <c r="G251" s="132"/>
       <c r="H251" s="122"/>
     </row>
     <row r="252" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A252" s="126"/>
-      <c r="B252" s="171"/>
+      <c r="B252" s="170"/>
       <c r="C252" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D252" s="59">
-        <v>5</v>
+        <v>403</v>
+      </c>
+      <c r="D252" s="10">
+        <v>0</v>
       </c>
       <c r="E252" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="F252" s="44" t="s">
-        <v>45</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="F252" s="44"/>
       <c r="G252" s="132"/>
       <c r="H252" s="122"/>
     </row>
     <row r="253" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A253" s="126"/>
-      <c r="B253" s="171"/>
+      <c r="B253" s="170"/>
       <c r="C253" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D253" s="10">
-        <v>50</v>
+        <v>405</v>
+      </c>
+      <c r="D253" s="59">
+        <v>5</v>
       </c>
       <c r="E253" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F253" s="44" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G253" s="132"/>
       <c r="H253" s="122"/>
     </row>
     <row r="254" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A254" s="126"/>
-      <c r="B254" s="171"/>
+      <c r="B254" s="170"/>
       <c r="C254" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D254" s="10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E254" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="F254" s="44"/>
+        <v>463</v>
+      </c>
+      <c r="F254" s="44" t="s">
+        <v>33</v>
+      </c>
       <c r="G254" s="132"/>
       <c r="H254" s="122"/>
     </row>
     <row r="255" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A255" s="126"/>
-      <c r="B255" s="171"/>
+      <c r="B255" s="170"/>
       <c r="C255" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D255" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F255" s="44"/>
       <c r="G255" s="132"/>
       <c r="H255" s="122"/>
     </row>
-    <row r="256" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A256" s="179"/>
-      <c r="B256" s="181"/>
-      <c r="C256" s="37" t="s">
+    <row r="256" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A256" s="126"/>
+      <c r="B256" s="170"/>
+      <c r="C256" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D256" s="10">
+        <v>1</v>
+      </c>
+      <c r="E256" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="F256" s="44"/>
+      <c r="G256" s="132"/>
+      <c r="H256" s="122"/>
+    </row>
+    <row r="257" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A257" s="179"/>
+      <c r="B257" s="181"/>
+      <c r="C257" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="D256" s="34">
+      <c r="D257" s="34">
         <v>50</v>
       </c>
-      <c r="E256" s="35" t="s">
+      <c r="E257" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="F256" s="44" t="s">
+      <c r="F257" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G256" s="178"/>
-      <c r="H256" s="173"/>
-    </row>
-    <row r="257" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A257" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C257" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="D257" s="193"/>
-      <c r="E257" s="193"/>
-      <c r="F257" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H257" s="15" t="s">
-        <v>468</v>
-      </c>
+      <c r="G257" s="178"/>
+      <c r="H257" s="172"/>
     </row>
     <row r="258" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A258" s="115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B258" s="12" t="s">
         <v>109</v>
@@ -10705,15 +10748,15 @@
         <v>13</v>
       </c>
       <c r="G258" s="14" t="s">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="H258" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A259" s="115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B259" s="12" t="s">
         <v>109</v>
@@ -10724,18 +10767,18 @@
       <c r="D259" s="193"/>
       <c r="E259" s="193"/>
       <c r="F259" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G259" s="14" t="s">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="H259" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A260" s="116" t="s">
-        <v>81</v>
+      <c r="A260" s="115" t="s">
+        <v>80</v>
       </c>
       <c r="B260" s="12" t="s">
         <v>109</v>
@@ -10745,480 +10788,502 @@
       </c>
       <c r="D260" s="193"/>
       <c r="E260" s="193"/>
-      <c r="F260" s="20" t="s">
+      <c r="F260" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G260" s="21" t="s">
+      <c r="G260" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H260" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A261" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C261" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="D261" s="193"/>
+      <c r="E261" s="193"/>
+      <c r="F261" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G261" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="H260" s="22" t="s">
+      <c r="H261" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A261" s="137" t="s">
+    <row r="262" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A262" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B261" s="195" t="s">
+      <c r="B262" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C262" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="D261" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E261" s="31" t="s">
+      <c r="D262" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E262" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="F261" s="74"/>
-      <c r="G261" s="141" t="s">
+      <c r="F262" s="74"/>
+      <c r="G262" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="H261" s="143" t="s">
+      <c r="H262" s="141" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A262" s="138"/>
-      <c r="B262" s="196"/>
-      <c r="C262" s="86" t="s">
+    <row r="263" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A263" s="136"/>
+      <c r="B263" s="196"/>
+      <c r="C263" s="86" t="s">
         <v>478</v>
       </c>
-      <c r="D262" s="87">
+      <c r="D263" s="87">
         <v>0</v>
       </c>
-      <c r="E262" s="88" t="s">
+      <c r="E263" s="88" t="s">
         <v>488</v>
       </c>
-      <c r="G262" s="142"/>
-      <c r="H262" s="203"/>
-    </row>
-    <row r="263" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A263" s="138"/>
-      <c r="B263" s="196"/>
-      <c r="C263" s="89" t="s">
-        <v>479</v>
-      </c>
-      <c r="D263" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="E263" s="90" t="s">
-        <v>480</v>
-      </c>
-      <c r="G263" s="142"/>
+      <c r="G263" s="140"/>
       <c r="H263" s="203"/>
     </row>
     <row r="264" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A264" s="138"/>
+      <c r="A264" s="136"/>
       <c r="B264" s="196"/>
       <c r="C264" s="89" t="s">
+        <v>479</v>
+      </c>
+      <c r="D264" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E264" s="90" t="s">
+        <v>480</v>
+      </c>
+      <c r="G264" s="140"/>
+      <c r="H264" s="203"/>
+    </row>
+    <row r="265" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A265" s="136"/>
+      <c r="B265" s="196"/>
+      <c r="C265" s="89" t="s">
         <v>482</v>
       </c>
-      <c r="D264" s="85" t="s">
+      <c r="D265" s="85" t="s">
         <v>483</v>
       </c>
-      <c r="E264" s="90" t="s">
+      <c r="E265" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="G264" s="142"/>
-      <c r="H264" s="203"/>
-    </row>
-    <row r="265" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A265" s="138"/>
-      <c r="B265" s="196"/>
-      <c r="C265" s="91" t="s">
+      <c r="G265" s="140"/>
+      <c r="H265" s="203"/>
+    </row>
+    <row r="266" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A266" s="136"/>
+      <c r="B266" s="196"/>
+      <c r="C266" s="91" t="s">
         <v>485</v>
       </c>
-      <c r="D265" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="E265" s="93" t="s">
+      <c r="D266" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266" s="93" t="s">
         <v>486</v>
       </c>
-      <c r="F265" s="6" t="s">
+      <c r="F266" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="G265" s="142"/>
-      <c r="H265" s="203"/>
-    </row>
-    <row r="266" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A266" s="138"/>
-      <c r="B266" s="196"/>
-      <c r="C266" s="72" t="s">
-        <v>474</v>
-      </c>
-      <c r="D266" s="10">
-        <v>0</v>
-      </c>
-      <c r="E266" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="G266" s="142"/>
+      <c r="G266" s="140"/>
       <c r="H266" s="203"/>
     </row>
     <row r="267" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A267" s="138"/>
+      <c r="A267" s="136"/>
       <c r="B267" s="196"/>
       <c r="C267" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="D267" s="10">
+        <v>0</v>
+      </c>
+      <c r="E267" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="G267" s="140"/>
+      <c r="H267" s="203"/>
+    </row>
+    <row r="268" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A268" s="136"/>
+      <c r="B268" s="196"/>
+      <c r="C268" s="72" t="s">
         <v>577</v>
-      </c>
-      <c r="D267" s="10">
-        <v>1</v>
-      </c>
-      <c r="E267" s="32" t="s">
-        <v>578</v>
-      </c>
-      <c r="G267" s="142"/>
-      <c r="H267" s="203"/>
-    </row>
-    <row r="268" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A268" s="138"/>
-      <c r="B268" s="196"/>
-      <c r="C268" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="D268" s="10">
         <v>1</v>
       </c>
       <c r="E268" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="G268" s="140"/>
+      <c r="H268" s="203"/>
+    </row>
+    <row r="269" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A269" s="136"/>
+      <c r="B269" s="196"/>
+      <c r="C269" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D269" s="10">
+        <v>1</v>
+      </c>
+      <c r="E269" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="G268" s="142"/>
-      <c r="H268" s="203"/>
-    </row>
-    <row r="269" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A269" s="138"/>
-      <c r="B269" s="196"/>
-      <c r="C269" s="72" t="s">
+      <c r="G269" s="140"/>
+      <c r="H269" s="203"/>
+    </row>
+    <row r="270" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A270" s="136"/>
+      <c r="B270" s="196"/>
+      <c r="C270" s="72" t="s">
         <v>489</v>
       </c>
-      <c r="D269" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E269" s="32" t="s">
+      <c r="D270" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E270" s="32" t="s">
         <v>579</v>
-      </c>
-      <c r="F269" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G269" s="142"/>
-      <c r="H269" s="203"/>
-    </row>
-    <row r="270" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A270" s="138"/>
-      <c r="B270" s="196"/>
-      <c r="C270" s="79" t="s">
-        <v>490</v>
-      </c>
-      <c r="D270" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E270" s="32" t="s">
-        <v>580</v>
       </c>
       <c r="F270" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G270" s="142"/>
+      <c r="G270" s="140"/>
       <c r="H270" s="203"/>
     </row>
     <row r="271" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A271" s="138"/>
+      <c r="A271" s="136"/>
       <c r="B271" s="196"/>
-      <c r="C271" s="9" t="s">
-        <v>492</v>
+      <c r="C271" s="79" t="s">
+        <v>490</v>
       </c>
       <c r="D271" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E271" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="F271" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E271" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="G271" s="142"/>
+      <c r="G271" s="140"/>
       <c r="H271" s="203"/>
     </row>
     <row r="272" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A272" s="138"/>
+      <c r="A272" s="136"/>
       <c r="B272" s="196"/>
       <c r="C272" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D272" s="10">
-        <v>1</v>
+        <v>492</v>
+      </c>
+      <c r="D272" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="E272" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="G272" s="142"/>
+        <v>491</v>
+      </c>
+      <c r="G272" s="140"/>
       <c r="H272" s="203"/>
     </row>
     <row r="273" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A273" s="138"/>
+      <c r="A273" s="136"/>
       <c r="B273" s="196"/>
       <c r="C273" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D273" s="10">
+        <v>1</v>
+      </c>
+      <c r="E273" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="G273" s="140"/>
+      <c r="H273" s="203"/>
+    </row>
+    <row r="274" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A274" s="136"/>
+      <c r="B274" s="196"/>
+      <c r="C274" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="D273" s="10">
+      <c r="D274" s="10">
         <v>8</v>
       </c>
-      <c r="E273" s="32" t="s">
+      <c r="E274" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="G273" s="142"/>
-      <c r="H273" s="203"/>
-    </row>
-    <row r="274" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A274" s="194"/>
-      <c r="B274" s="197"/>
-      <c r="C274" s="38" t="s">
+      <c r="G274" s="140"/>
+      <c r="H274" s="203"/>
+    </row>
+    <row r="275" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A275" s="194"/>
+      <c r="B275" s="197"/>
+      <c r="C275" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="D274" s="30">
+      <c r="D275" s="30">
         <v>0</v>
       </c>
-      <c r="E274" s="33" t="s">
+      <c r="E275" s="33" t="s">
         <v>653</v>
       </c>
-      <c r="F274" s="94"/>
-      <c r="G274" s="202"/>
-      <c r="H274" s="204"/>
-    </row>
-    <row r="275" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A275" s="137" t="s">
+      <c r="F275" s="94"/>
+      <c r="G275" s="202"/>
+      <c r="H275" s="204"/>
+    </row>
+    <row r="276" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A276" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B275" s="147" t="s">
+      <c r="B276" s="145" t="s">
         <v>581</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C276" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="D275" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E275" s="31" t="s">
+      <c r="D276" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E276" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="F275" s="74"/>
-      <c r="G275" s="141" t="s">
+      <c r="F276" s="74"/>
+      <c r="G276" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="H275" s="206" t="s">
+      <c r="H276" s="206" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A276" s="138"/>
-      <c r="B276" s="148"/>
-      <c r="C276" s="9" t="s">
+    <row r="277" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A277" s="136"/>
+      <c r="B277" s="146"/>
+      <c r="C277" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D276" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E276" s="32" t="s">
+      <c r="D277" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E277" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="G276" s="142"/>
-      <c r="H276" s="203"/>
-    </row>
-    <row r="277" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A277" s="138"/>
-      <c r="B277" s="148"/>
-      <c r="C277" s="124" t="s">
+      <c r="G277" s="140"/>
+      <c r="H277" s="203"/>
+    </row>
+    <row r="278" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A278" s="136"/>
+      <c r="B278" s="146"/>
+      <c r="C278" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="D277" s="124"/>
-      <c r="E277" s="124"/>
-      <c r="G277" s="142"/>
-      <c r="H277" s="203"/>
-    </row>
-    <row r="278" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A278" s="138"/>
-      <c r="B278" s="148"/>
-      <c r="C278" s="9" t="s">
+      <c r="D278" s="124"/>
+      <c r="E278" s="124"/>
+      <c r="G278" s="140"/>
+      <c r="H278" s="203"/>
+    </row>
+    <row r="279" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A279" s="136"/>
+      <c r="B279" s="146"/>
+      <c r="C279" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D278" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E278" s="32" t="s">
+      <c r="D279" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E279" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="G278" s="142"/>
-      <c r="H278" s="203"/>
-    </row>
-    <row r="279" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A279" s="138"/>
-      <c r="B279" s="148"/>
-      <c r="C279" s="9" t="s">
+      <c r="G279" s="140"/>
+      <c r="H279" s="203"/>
+    </row>
+    <row r="280" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A280" s="136"/>
+      <c r="B280" s="146"/>
+      <c r="C280" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="D279" s="10">
+      <c r="D280" s="10">
         <v>0</v>
       </c>
-      <c r="E279" s="32" t="s">
+      <c r="E280" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="F279" s="6" t="s">
+      <c r="F280" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G279" s="142"/>
-      <c r="H279" s="203"/>
-    </row>
-    <row r="280" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A280" s="194"/>
-      <c r="B280" s="205"/>
-      <c r="C280" s="38" t="s">
+      <c r="G280" s="140"/>
+      <c r="H280" s="203"/>
+    </row>
+    <row r="281" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A281" s="194"/>
+      <c r="B281" s="205"/>
+      <c r="C281" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="D280" s="30">
+      <c r="D281" s="30">
         <v>0</v>
       </c>
-      <c r="E280" s="33" t="s">
+      <c r="E281" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="F280" s="94" t="s">
+      <c r="F281" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G280" s="202"/>
-      <c r="H280" s="204"/>
-    </row>
-    <row r="281" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A281" s="69" t="s">
+      <c r="G281" s="202"/>
+      <c r="H281" s="204"/>
+    </row>
+    <row r="282" spans="1:8" ht="50.1" customHeight="1" thickBot="1">
+      <c r="A282" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B281" s="12" t="s">
+      <c r="B282" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C281" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="D281" s="192"/>
-      <c r="E281" s="192"/>
-      <c r="F281" s="41"/>
-      <c r="G281" s="62" t="s">
+      <c r="C282" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="D282" s="192"/>
+      <c r="E282" s="192"/>
+      <c r="F282" s="41"/>
+      <c r="G282" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H281" s="64" t="s">
+      <c r="H282" s="64" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="1"/>
-    </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="114" t="s">
-        <v>664</v>
-      </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="1"/>
     </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="114" t="s">
+        <v>664</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="H200:H213"/>
-    <mergeCell ref="B200:B213"/>
-    <mergeCell ref="H177:H199"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="A200:A213"/>
-    <mergeCell ref="F200:F213"/>
-    <mergeCell ref="G200:G213"/>
-    <mergeCell ref="H138:H169"/>
-    <mergeCell ref="C170:E170"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="H201:H214"/>
+    <mergeCell ref="B201:B214"/>
+    <mergeCell ref="H178:H200"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="A201:A214"/>
+    <mergeCell ref="F201:F214"/>
+    <mergeCell ref="G201:G214"/>
+    <mergeCell ref="H139:H170"/>
     <mergeCell ref="C171:E171"/>
     <mergeCell ref="C172:E172"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C219:E219"/>
-    <mergeCell ref="A220:A230"/>
-    <mergeCell ref="B220:B230"/>
-    <mergeCell ref="G220:G230"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="G215:G217"/>
-    <mergeCell ref="G177:G199"/>
-    <mergeCell ref="A177:A199"/>
-    <mergeCell ref="B177:B199"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="G173:G176"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A138:A169"/>
-    <mergeCell ref="B138:B169"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="G138:G169"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="G174:G177"/>
+    <mergeCell ref="C220:E220"/>
+    <mergeCell ref="A221:A231"/>
+    <mergeCell ref="B221:B231"/>
+    <mergeCell ref="G221:G231"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="G216:G218"/>
+    <mergeCell ref="G178:G200"/>
+    <mergeCell ref="A178:A200"/>
+    <mergeCell ref="B178:B200"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A139:A170"/>
+    <mergeCell ref="B139:B170"/>
+    <mergeCell ref="H174:H177"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="G139:G170"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C143:E143"/>
     <mergeCell ref="C113:E113"/>
     <mergeCell ref="C114:E114"/>
     <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="G121:G123"/>
-    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
     <mergeCell ref="C134:E134"/>
-    <mergeCell ref="G135:G137"/>
-    <mergeCell ref="H135:H137"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="G130:G132"/>
-    <mergeCell ref="H130:H132"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="H127:H129"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="C281:E281"/>
-    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="G136:G138"/>
+    <mergeCell ref="H136:H138"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="G128:G130"/>
+    <mergeCell ref="H128:H130"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="C282:E282"/>
     <mergeCell ref="C259:E259"/>
     <mergeCell ref="C260:E260"/>
-    <mergeCell ref="A261:A274"/>
-    <mergeCell ref="B261:B274"/>
-    <mergeCell ref="H215:H217"/>
-    <mergeCell ref="C218:E218"/>
-    <mergeCell ref="A233:A256"/>
-    <mergeCell ref="B233:B256"/>
-    <mergeCell ref="G233:G256"/>
-    <mergeCell ref="C257:E257"/>
-    <mergeCell ref="H220:H230"/>
-    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="C261:E261"/>
+    <mergeCell ref="A262:A275"/>
+    <mergeCell ref="B262:B275"/>
+    <mergeCell ref="H216:H218"/>
+    <mergeCell ref="C219:E219"/>
+    <mergeCell ref="A234:A257"/>
+    <mergeCell ref="B234:B257"/>
+    <mergeCell ref="G234:G257"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="H221:H231"/>
     <mergeCell ref="C232:E232"/>
-    <mergeCell ref="C237:E237"/>
-    <mergeCell ref="G261:G274"/>
-    <mergeCell ref="H261:H274"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="B275:B280"/>
-    <mergeCell ref="G275:G280"/>
-    <mergeCell ref="H275:H280"/>
-    <mergeCell ref="H233:H256"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="C238:E238"/>
+    <mergeCell ref="G262:G275"/>
+    <mergeCell ref="H262:H275"/>
+    <mergeCell ref="C278:E278"/>
+    <mergeCell ref="A276:A281"/>
+    <mergeCell ref="B276:B281"/>
+    <mergeCell ref="G276:G281"/>
+    <mergeCell ref="H276:H281"/>
+    <mergeCell ref="H234:H257"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C150:E150"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A74:A89"/>
-    <mergeCell ref="B74:B89"/>
+    <mergeCell ref="A75:A90"/>
+    <mergeCell ref="B75:B90"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="C7:E7"/>
@@ -11227,18 +11292,24 @@
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="G74:G89"/>
-    <mergeCell ref="H74:H89"/>
-    <mergeCell ref="A90:A111"/>
-    <mergeCell ref="B90:B111"/>
-    <mergeCell ref="G90:G111"/>
-    <mergeCell ref="H90:H111"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H18"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="G75:G90"/>
+    <mergeCell ref="H75:H90"/>
+    <mergeCell ref="A91:A112"/>
+    <mergeCell ref="B91:B112"/>
+    <mergeCell ref="G91:G112"/>
+    <mergeCell ref="H91:H112"/>
     <mergeCell ref="H31:H36"/>
-    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="F26:F29"/>
@@ -11248,36 +11319,30 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F31:F36"/>
     <mergeCell ref="G31:G36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="G39:G50"/>
+    <mergeCell ref="H39:H50"/>
+    <mergeCell ref="A51:A74"/>
+    <mergeCell ref="B51:B74"/>
+    <mergeCell ref="G51:G74"/>
+    <mergeCell ref="H51:H74"/>
+    <mergeCell ref="F6:F18"/>
     <mergeCell ref="G6:G18"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G24"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H6:H18"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H121:H123"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="G39:G49"/>
-    <mergeCell ref="H39:H49"/>
-    <mergeCell ref="A50:A73"/>
-    <mergeCell ref="B50:B73"/>
-    <mergeCell ref="G50:G73"/>
-    <mergeCell ref="H50:H73"/>
-    <mergeCell ref="F6:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
